--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -13,15 +13,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7miZQn2xdJM7ieIkVDysAdyUUG5apA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="pKSPOoZkgIi1MSbfavyx6K8+EtSbkaWyTC5ZU30o68c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="258">
   <si>
     <t>Date</t>
   </si>
@@ -371,6 +371,378 @@
     <t>ID_NUMCRIINV</t>
   </si>
   <si>
+    <t>RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A1B9</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>ATTENTE réponse MOE</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>GROUPE01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 10</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 10</t>
+  </si>
+  <si>
+    <t>COMPTA01</t>
+  </si>
+  <si>
+    <t>ATTENTE REPONSE MOE</t>
+  </si>
+  <si>
+    <t>MAT0010</t>
+  </si>
+  <si>
+    <t>METH01</t>
+  </si>
+  <si>
+    <t>ETAVIS01</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 10</t>
+  </si>
+  <si>
+    <t>HEURES</t>
+  </si>
+  <si>
+    <t>GAR12M</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 09</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 09</t>
+  </si>
+  <si>
+    <t>MAT0009</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 09</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 11</t>
+  </si>
+  <si>
+    <t>MAT0011</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 11</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 11</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 12</t>
+  </si>
+  <si>
+    <t>MAT0012</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 12</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 12</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 13</t>
+  </si>
+  <si>
+    <t>COMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0013</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 13</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 14</t>
+  </si>
+  <si>
+    <t>MAT0014</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 14</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 15</t>
+  </si>
+  <si>
+    <t>MAT0015</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>MAT.UPD.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 15</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 16</t>
+  </si>
+  <si>
+    <t>MAT0016</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 16</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 17</t>
+  </si>
+  <si>
+    <t>MAT0017</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 17</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 18</t>
+  </si>
+  <si>
+    <t>MAT0018</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 18</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 19</t>
+  </si>
+  <si>
+    <t>MAT0019</t>
+  </si>
+  <si>
     <t>CAS DE TEST (MAT_CONTRA)</t>
   </si>
   <si>
@@ -414,6 +786,9 @@
   </si>
   <si>
     <t>OL_DOC</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -426,11 +801,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -464,12 +840,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +881,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -582,15 +977,69 @@
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,8 +2358,38 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="24.0"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="19.75"/>
+    <col customWidth="1" min="12" max="12" width="20.13"/>
+    <col customWidth="1" min="13" max="13" width="6.88"/>
+    <col customWidth="1" min="14" max="14" width="24.38"/>
+    <col customWidth="1" min="15" max="15" width="24.0"/>
+    <col customWidth="1" min="16" max="16" width="7.63"/>
+    <col customWidth="1" min="17" max="17" width="10.88"/>
+    <col customWidth="1" min="18" max="18" width="7.88"/>
+    <col customWidth="1" min="32" max="32" width="21.38"/>
+    <col customWidth="1" min="36" max="36" width="20.0"/>
+    <col customWidth="1" min="37" max="37" width="16.75"/>
+    <col customWidth="1" min="42" max="42" width="19.75"/>
+    <col customWidth="1" min="51" max="51" width="24.0"/>
+    <col customWidth="1" min="53" max="53" width="19.25"/>
+    <col customWidth="1" min="63" max="63" width="23.38"/>
+    <col customWidth="1" min="65" max="65" width="17.13"/>
+    <col customWidth="1" min="70" max="70" width="21.38"/>
+    <col customWidth="1" min="73" max="73" width="22.0"/>
+    <col customWidth="1" min="74" max="75" width="13.5"/>
+    <col customWidth="1" min="76" max="77" width="10.25"/>
+    <col customWidth="1" min="78" max="78" width="9.38"/>
+    <col customWidth="1" min="79" max="79" width="7.75"/>
+    <col customWidth="1" min="80" max="80" width="13.63"/>
+    <col customWidth="1" min="82" max="82" width="13.5"/>
+    <col customWidth="1" min="86" max="89" width="24.63"/>
+    <col customWidth="1" min="90" max="93" width="19.88"/>
+    <col customWidth="1" min="94" max="94" width="20.0"/>
+    <col customWidth="1" min="95" max="95" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2225,46 +2704,3434 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1002.0</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="23">
+        <v>45658.0</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="23">
+        <v>44593.0</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL2" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM2" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN2" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC2" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD2" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE2" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF2" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO2" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP2" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ2" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ2" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CI2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CJ2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="CP2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CQ2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="CR2" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX2" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY2" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1003.0</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="23">
+        <v>45658.0</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="23">
+        <v>44593.0</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN3" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO3" s="25">
+        <v>80000.0</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB3" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC3" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD3" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE3" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF3" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG3" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH3" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL3" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO3" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP3" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ3" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ3" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CI3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CJ3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CK3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CL3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CN3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ3" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR3" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX3" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY3" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1004.0</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="23">
+        <v>45658.0</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="23">
+        <v>44593.0</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL4" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM4" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN4" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO4" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB4" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC4" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD4" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE4" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF4" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL4" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO4" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP4" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ4" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ4" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="CK4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="CL4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CO4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CP4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="CQ4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="CR4" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX4" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY4" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1005.0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM5" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN5" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO5" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ5" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA5" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB5" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC5" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD5" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE5" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF5" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK5" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL5" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO5" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP5" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ5" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR5" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="BV5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ5" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="CQ5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="CR5" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX5" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY5" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1006.0</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X6" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL6" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM6" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN6" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO6" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB6" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC6" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD6" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE6" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF6" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL6" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="BM6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO6" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP6" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ6" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT6" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ6" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR6" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX6" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY6" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1007.0</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM7" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN7" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO7" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ7" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB7" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC7" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD7" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE7" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF7" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO7" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP7" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ7" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT7" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BU7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ7" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR7" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX7" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY7" s="17">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1008.0</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X8" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL8" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM8" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN8" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO8" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA8" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB8" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC8" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD8" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE8" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF8" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG8" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH8" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL8" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="BM8" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN8" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO8" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP8" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ8" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ8" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR8" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX8" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY8" s="17">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1009.0</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X9" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN9" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO9" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA9" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB9" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC9" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD9" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE9" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF9" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK9" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL9" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM9" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO9" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP9" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ9" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ9" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR9" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX9" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY9" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1010.0</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T10" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V10" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL10" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM10" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN10" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO10" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA10" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB10" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC10" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD10" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE10" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF10" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG10" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH10" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK10" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL10" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="BM10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO10" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP10" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ10" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR10" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT10" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ10" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR10" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX10" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY10" s="17">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1011.0</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T11" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM11" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO11" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ11" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB11" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC11" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD11" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE11" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF11" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK11" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL11" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="BM11" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO11" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP11" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ11" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR11" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT11" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="BU11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ11" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR11" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX11" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY11" s="17">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1012.0</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="T12" s="22">
+        <v>40000.0</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" s="27">
+        <v>45292.0</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" s="27">
+        <v>44228.0</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF12" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL12" s="25">
+        <v>8000.0</v>
+      </c>
+      <c r="AM12" s="27">
+        <v>48945.0</v>
+      </c>
+      <c r="AN12" s="25">
+        <v>8000000.0</v>
+      </c>
+      <c r="AO12" s="22">
+        <v>80000.0</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ12" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA12" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB12" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="BC12" s="27">
+        <v>44348.0</v>
+      </c>
+      <c r="BD12" s="27">
+        <v>44713.0</v>
+      </c>
+      <c r="BE12" s="27">
+        <v>44378.0</v>
+      </c>
+      <c r="BF12" s="27">
+        <v>44743.0</v>
+      </c>
+      <c r="BG12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK12" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL12" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="BM12" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO12" s="25">
+        <v>1000.0</v>
+      </c>
+      <c r="BP12" s="25">
+        <v>100.0</v>
+      </c>
+      <c r="BQ12" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="BR12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT12" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="BU12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ12" s="27">
+        <v>44197.0</v>
+      </c>
+      <c r="CA12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR12" s="27">
+        <v>43861.0</v>
+      </c>
+      <c r="CS12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CV12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX12" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="CY12" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="30"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="30"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -3690,20 +7557,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>119</v>
+      <c r="C1" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3728,25 +7595,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="34"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="34"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="34"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="34"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -6741,126 +10608,368 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="9" max="9" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="17" t="s">
+      <c r="O1" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
@@ -9772,25 +13881,25 @@
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980">
       <c r="A980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981">
       <c r="A981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982">
       <c r="A982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983">
       <c r="A983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984">
       <c r="A984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985">
       <c r="A985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986">
       <c r="A986" s="2"/>
     </row>
     <row r="987">
@@ -9804,27 +13913,6 @@
     </row>
     <row r="990">
       <c r="A990" s="2"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="2"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="2"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="2"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="2"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="2"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -9851,18 +13939,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="10.88"/>
+    <col customWidth="1" min="3" max="3" width="19.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>130</v>
+      <c r="C1" s="33" t="s">
+        <v>254</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -9889,37 +13978,125 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1002.0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1003.0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1004.0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1005.0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1006.0</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1007.0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1008.0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1009.0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1010.0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1011.0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1012.0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
@@ -12906,10 +17083,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12937,25 +17114,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="34"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="34"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="34"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="34"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="262">
   <si>
     <t>Date</t>
   </si>
@@ -443,6 +443,9 @@
     <t>IMP.RT.MAT.001.LEC.01.........</t>
   </si>
   <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
     <t>AFF COMPTABLE 10</t>
   </si>
   <si>
@@ -476,6 +479,9 @@
     <t>GAR12M</t>
   </si>
   <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
     <t>RT.MAT.001.MAJ.01</t>
   </si>
   <si>
@@ -572,6 +578,9 @@
     <t>ORG.RT.MAT.001.REC.01.........</t>
   </si>
   <si>
+    <t>FOU.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
     <t>CAL.RT.MAT.001.REC.01</t>
   </si>
   <si>
@@ -590,9 +599,6 @@
     <t>MAT0012</t>
   </si>
   <si>
-    <t>FOU.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
     <t>ACT.RT.MAT.001.REC.01</t>
   </si>
   <si>
@@ -614,6 +620,9 @@
     <t>IMP.TR.BTR.001.CRE.02.........</t>
   </si>
   <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
     <t>AFF COMPTABLE 13</t>
   </si>
   <si>
@@ -663,6 +672,9 @@
   </si>
   <si>
     <t>MAT0015</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
   </si>
   <si>
     <t>TR.BTR.001.MAJ.01</t>
@@ -2703,7 +2715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
@@ -2893,14 +2905,14 @@
       <c r="BK2" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="BL2" s="17">
-        <v>1.0</v>
+      <c r="BL2" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM2" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BN2" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BO2" s="25">
         <v>1000.0</v>
@@ -2912,13 +2924,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR2" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS2" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT2" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BU2" s="29" t="s">
         <v>132</v>
@@ -2942,13 +2954,13 @@
         <v>118</v>
       </c>
       <c r="CB2" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC2" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD2" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE2" s="15" t="s">
         <v>118</v>
@@ -2972,34 +2984,34 @@
         <v>123</v>
       </c>
       <c r="CL2" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CM2" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CN2" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CO2" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CP2" s="17" t="s">
         <v>132</v>
       </c>
       <c r="CQ2" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CR2" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS2" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT2" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU2" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV2" s="15" t="s">
         <v>118</v>
@@ -3007,19 +3019,19 @@
       <c r="CW2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX2" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY2" s="17">
-        <v>1.0</v>
+      <c r="CX2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY2" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>118</v>
@@ -3028,7 +3040,7 @@
         <v>119</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>118</v>
@@ -3049,13 +3061,13 @@
         <v>1003.0</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>118</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>124</v>
@@ -3121,7 +3133,7 @@
         <v>118</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AK3" s="17" t="s">
         <v>133</v>
@@ -3139,7 +3151,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AQ3" s="17" t="s">
         <v>135</v>
@@ -3166,13 +3178,13 @@
         <v>135</v>
       </c>
       <c r="AY3" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AZ3" s="28" t="s">
         <v>137</v>
       </c>
       <c r="BA3" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BB3" s="27">
         <v>44197.0</v>
@@ -3202,16 +3214,16 @@
         <v>118</v>
       </c>
       <c r="BK3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL3" s="17">
-        <v>1.0</v>
+        <v>162</v>
+      </c>
+      <c r="BL3" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM3" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BN3" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BO3" s="25">
         <v>1000.0</v>
@@ -3223,16 +3235,16 @@
         <v>1100.0</v>
       </c>
       <c r="BR3" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS3" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT3" s="17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BU3" s="29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BV3" s="24" t="s">
         <v>127</v>
@@ -3253,13 +3265,13 @@
         <v>118</v>
       </c>
       <c r="CB3" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC3" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD3" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE3" s="15" t="s">
         <v>118</v>
@@ -3271,46 +3283,46 @@
         <v>118</v>
       </c>
       <c r="CH3" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CI3" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CJ3" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CK3" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CL3" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CM3" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CN3" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CO3" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CP3" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CQ3" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CR3" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS3" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT3" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU3" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV3" s="15" t="s">
         <v>118</v>
@@ -3318,19 +3330,19 @@
       <c r="CW3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX3" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY3" s="17">
-        <v>1.0</v>
+      <c r="CX3" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY3" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>118</v>
@@ -3339,7 +3351,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>118</v>
@@ -3360,13 +3372,13 @@
         <v>1004.0</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>118</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>124</v>
@@ -3432,7 +3444,7 @@
         <v>118</v>
       </c>
       <c r="AJ4" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AK4" s="17" t="s">
         <v>133</v>
@@ -3450,7 +3462,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AQ4" s="17" t="s">
         <v>135</v>
@@ -3477,7 +3489,7 @@
         <v>135</v>
       </c>
       <c r="AY4" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AZ4" s="28" t="s">
         <v>137</v>
@@ -3513,16 +3525,16 @@
         <v>118</v>
       </c>
       <c r="BK4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL4" s="17">
-        <v>1.0</v>
+        <v>175</v>
+      </c>
+      <c r="BL4" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM4" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BN4" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BO4" s="25">
         <v>1000.0</v>
@@ -3534,16 +3546,16 @@
         <v>1100.0</v>
       </c>
       <c r="BR4" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS4" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT4" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BU4" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BV4" s="24" t="s">
         <v>127</v>
@@ -3564,13 +3576,13 @@
         <v>118</v>
       </c>
       <c r="CB4" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC4" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD4" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE4" s="15" t="s">
         <v>118</v>
@@ -3582,46 +3594,46 @@
         <v>118</v>
       </c>
       <c r="CH4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CI4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CJ4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CK4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CL4" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CM4" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CN4" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CO4" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CP4" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CQ4" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CR4" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS4" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT4" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU4" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV4" s="15" t="s">
         <v>118</v>
@@ -3629,19 +3641,19 @@
       <c r="CW4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX4" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY4" s="17">
-        <v>1.0</v>
+      <c r="CX4" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY4" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>118</v>
@@ -3650,7 +3662,7 @@
         <v>119</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>118</v>
@@ -3671,13 +3683,13 @@
         <v>1005.0</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>124</v>
@@ -3743,7 +3755,7 @@
         <v>118</v>
       </c>
       <c r="AJ5" s="17" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AK5" s="17" t="s">
         <v>133</v>
@@ -3761,7 +3773,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP5" s="17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AQ5" s="17" t="s">
         <v>135</v>
@@ -3788,13 +3800,13 @@
         <v>135</v>
       </c>
       <c r="AY5" s="17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AZ5" s="28" t="s">
         <v>137</v>
       </c>
       <c r="BA5" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BB5" s="27">
         <v>44197.0</v>
@@ -3824,16 +3836,16 @@
         <v>118</v>
       </c>
       <c r="BK5" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL5" s="17">
-        <v>1.0</v>
+        <v>189</v>
+      </c>
+      <c r="BL5" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM5" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN5" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BO5" s="25">
         <v>1000.0</v>
@@ -3845,16 +3857,16 @@
         <v>1100.0</v>
       </c>
       <c r="BR5" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS5" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BU5" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="BV5" s="24" t="s">
         <v>127</v>
@@ -3875,13 +3887,13 @@
         <v>118</v>
       </c>
       <c r="CB5" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC5" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD5" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>118</v>
@@ -3893,46 +3905,46 @@
         <v>118</v>
       </c>
       <c r="CH5" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CI5" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CK5" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CL5" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CM5" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CN5" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CO5" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CP5" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CQ5" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="CR5" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS5" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT5" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU5" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV5" s="15" t="s">
         <v>118</v>
@@ -3940,19 +3952,19 @@
       <c r="CW5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX5" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY5" s="17">
-        <v>1.0</v>
+      <c r="CX5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY5" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>118</v>
@@ -3982,7 +3994,7 @@
         <v>1006.0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>118</v>
@@ -4105,7 +4117,7 @@
         <v>137</v>
       </c>
       <c r="BA6" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BB6" s="27">
         <v>44197.0</v>
@@ -4135,16 +4147,16 @@
         <v>118</v>
       </c>
       <c r="BK6" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL6" s="17">
-        <v>2.0</v>
+        <v>198</v>
+      </c>
+      <c r="BL6" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="BM6" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BN6" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO6" s="25">
         <v>1000.0</v>
@@ -4156,13 +4168,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR6" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS6" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT6" s="17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BU6" s="16" t="s">
         <v>118</v>
@@ -4186,13 +4198,13 @@
         <v>118</v>
       </c>
       <c r="CB6" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC6" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD6" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE6" s="15" t="s">
         <v>118</v>
@@ -4237,13 +4249,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS6" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT6" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU6" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV6" s="15" t="s">
         <v>118</v>
@@ -4251,19 +4263,19 @@
       <c r="CW6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX6" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY6" s="17">
-        <v>1.0</v>
+      <c r="CX6" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY6" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>118</v>
@@ -4293,7 +4305,7 @@
         <v>1007.0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>118</v>
@@ -4416,7 +4428,7 @@
         <v>137</v>
       </c>
       <c r="BA7" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BB7" s="27">
         <v>44197.0</v>
@@ -4446,16 +4458,16 @@
         <v>118</v>
       </c>
       <c r="BK7" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL7" s="17">
-        <v>1.0</v>
+        <v>207</v>
+      </c>
+      <c r="BL7" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM7" s="17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BN7" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO7" s="25">
         <v>1000.0</v>
@@ -4467,13 +4479,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR7" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS7" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT7" s="17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BU7" s="16" t="s">
         <v>118</v>
@@ -4497,13 +4509,13 @@
         <v>118</v>
       </c>
       <c r="CB7" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC7" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD7" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE7" s="15" t="s">
         <v>118</v>
@@ -4548,13 +4560,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS7" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT7" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU7" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV7" s="15" t="s">
         <v>118</v>
@@ -4562,19 +4574,19 @@
       <c r="CW7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX7" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY7" s="17">
-        <v>2.0</v>
+      <c r="CX7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY7" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>118</v>
@@ -4604,7 +4616,7 @@
         <v>1008.0</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>118</v>
@@ -4727,7 +4739,7 @@
         <v>137</v>
       </c>
       <c r="BA8" s="17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BB8" s="27">
         <v>44197.0</v>
@@ -4757,16 +4769,16 @@
         <v>118</v>
       </c>
       <c r="BK8" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL8" s="17">
-        <v>2.0</v>
+        <v>214</v>
+      </c>
+      <c r="BL8" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="BM8" s="17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BN8" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO8" s="25">
         <v>1000.0</v>
@@ -4778,13 +4790,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR8" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS8" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT8" s="17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BU8" s="16" t="s">
         <v>118</v>
@@ -4808,13 +4820,13 @@
         <v>118</v>
       </c>
       <c r="CB8" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC8" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD8" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE8" s="15" t="s">
         <v>118</v>
@@ -4859,13 +4871,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS8" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT8" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU8" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV8" s="15" t="s">
         <v>118</v>
@@ -4873,19 +4885,19 @@
       <c r="CW8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX8" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY8" s="17">
-        <v>3.0</v>
+      <c r="CX8" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY8" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>118</v>
@@ -4915,7 +4927,7 @@
         <v>1009.0</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>118</v>
@@ -5038,7 +5050,7 @@
         <v>137</v>
       </c>
       <c r="BA9" s="17" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BB9" s="27">
         <v>44197.0</v>
@@ -5068,16 +5080,16 @@
         <v>118</v>
       </c>
       <c r="BK9" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL9" s="17">
-        <v>1.0</v>
+        <v>222</v>
+      </c>
+      <c r="BL9" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM9" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BN9" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO9" s="25">
         <v>1000.0</v>
@@ -5089,13 +5101,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR9" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS9" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT9" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BU9" s="16" t="s">
         <v>118</v>
@@ -5119,13 +5131,13 @@
         <v>118</v>
       </c>
       <c r="CB9" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC9" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD9" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE9" s="15" t="s">
         <v>118</v>
@@ -5170,13 +5182,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS9" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT9" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU9" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV9" s="15" t="s">
         <v>118</v>
@@ -5184,19 +5196,19 @@
       <c r="CW9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX9" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY9" s="17">
-        <v>1.0</v>
+      <c r="CX9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY9" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>118</v>
@@ -5226,7 +5238,7 @@
         <v>1010.0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>118</v>
@@ -5349,7 +5361,7 @@
         <v>137</v>
       </c>
       <c r="BA10" s="17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BB10" s="27">
         <v>44197.0</v>
@@ -5379,16 +5391,16 @@
         <v>118</v>
       </c>
       <c r="BK10" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL10" s="17">
-        <v>2.0</v>
+        <v>227</v>
+      </c>
+      <c r="BL10" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="BM10" s="17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BN10" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO10" s="25">
         <v>1000.0</v>
@@ -5400,13 +5412,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR10" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS10" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT10" s="17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BU10" s="16" t="s">
         <v>118</v>
@@ -5430,13 +5442,13 @@
         <v>118</v>
       </c>
       <c r="CB10" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC10" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD10" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE10" s="15" t="s">
         <v>118</v>
@@ -5481,13 +5493,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS10" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT10" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU10" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV10" s="15" t="s">
         <v>118</v>
@@ -5495,19 +5507,19 @@
       <c r="CW10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX10" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY10" s="17">
-        <v>2.0</v>
+      <c r="CX10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY10" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>118</v>
@@ -5537,7 +5549,7 @@
         <v>1011.0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>118</v>
@@ -5660,7 +5672,7 @@
         <v>137</v>
       </c>
       <c r="BA11" s="17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BB11" s="27">
         <v>44197.0</v>
@@ -5690,16 +5702,16 @@
         <v>118</v>
       </c>
       <c r="BK11" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL11" s="17">
-        <v>1.0</v>
+        <v>234</v>
+      </c>
+      <c r="BL11" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BM11" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BN11" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO11" s="25">
         <v>1000.0</v>
@@ -5711,13 +5723,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR11" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS11" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT11" s="17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>118</v>
@@ -5741,13 +5753,13 @@
         <v>118</v>
       </c>
       <c r="CB11" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC11" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD11" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE11" s="15" t="s">
         <v>118</v>
@@ -5792,13 +5804,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS11" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT11" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU11" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV11" s="15" t="s">
         <v>118</v>
@@ -5806,19 +5818,19 @@
       <c r="CW11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX11" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY11" s="17">
-        <v>3.0</v>
+      <c r="CX11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY11" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>118</v>
@@ -5848,7 +5860,7 @@
         <v>1012.0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>118</v>
@@ -5971,7 +5983,7 @@
         <v>137</v>
       </c>
       <c r="BA12" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BB12" s="27">
         <v>44197.0</v>
@@ -6001,16 +6013,16 @@
         <v>118</v>
       </c>
       <c r="BK12" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="BL12" s="17">
-        <v>2.0</v>
+        <v>241</v>
+      </c>
+      <c r="BL12" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="BM12" s="17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BN12" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BO12" s="25">
         <v>1000.0</v>
@@ -6022,13 +6034,13 @@
         <v>1100.0</v>
       </c>
       <c r="BR12" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS12" s="15" t="s">
         <v>118</v>
       </c>
       <c r="BT12" s="17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BU12" s="16" t="s">
         <v>118</v>
@@ -6052,13 +6064,13 @@
         <v>118</v>
       </c>
       <c r="CB12" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CC12" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CD12" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CE12" s="15" t="s">
         <v>118</v>
@@ -6103,13 +6115,13 @@
         <v>43861.0</v>
       </c>
       <c r="CS12" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CT12" s="15" t="s">
         <v>121</v>
       </c>
       <c r="CU12" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV12" s="15" t="s">
         <v>118</v>
@@ -6117,11 +6129,11 @@
       <c r="CW12" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX12" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="CY12" s="17">
-        <v>1.0</v>
+      <c r="CX12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY12" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -7558,19 +7570,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10614,10 +10626,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>14</v>
@@ -10626,7 +10638,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>16</v>
@@ -10638,10 +10650,10 @@
         <v>29</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>30</v>
@@ -10650,22 +10662,22 @@
         <v>63</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>48</v>
@@ -13945,13 +13957,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13985,117 +13997,117 @@
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="35">
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="35">
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="35">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B6" s="35">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" s="35">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B8" s="35">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B9" s="35">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B10" s="35">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B11" s="35">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B12" s="35">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -17083,10 +17095,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -704,7 +704,7 @@
     <t>REF FOURNISSEUR 16</t>
   </si>
   <si>
-    <t>IMP.TR.BTR.001.MAJ.01</t>
+    <t>IMP.UPD.TR.BTR.001.MAJ.01.....</t>
   </si>
   <si>
     <t>AFF COMPTABLE 17</t>
@@ -2388,7 +2388,7 @@
     <col customWidth="1" min="42" max="42" width="19.75"/>
     <col customWidth="1" min="51" max="51" width="24.0"/>
     <col customWidth="1" min="53" max="53" width="19.25"/>
-    <col customWidth="1" min="63" max="63" width="23.38"/>
+    <col customWidth="1" min="63" max="63" width="25.88"/>
     <col customWidth="1" min="65" max="65" width="17.13"/>
     <col customWidth="1" min="70" max="70" width="21.38"/>
     <col customWidth="1" min="73" max="73" width="22.0"/>
@@ -2402,6 +2402,7 @@
     <col customWidth="1" min="90" max="93" width="19.88"/>
     <col customWidth="1" min="94" max="94" width="20.0"/>
     <col customWidth="1" min="95" max="95" width="21.13"/>
+    <col customWidth="1" min="102" max="102" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3929,7 +3930,7 @@
         <v>192</v>
       </c>
       <c r="CP5" s="17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="CQ5" s="17" t="s">
         <v>193</v>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -416,7 +416,7 @@
     <t>TNR</t>
   </si>
   <si>
-    <t>ATTENTE réponse MOE</t>
+    <t>Non suivi en Stock</t>
   </si>
   <si>
     <t>FOU.RT.MAT.001.LEC.01</t>
@@ -818,7 +818,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -863,6 +863,11 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -958,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1025,8 +1030,8 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -1034,19 +1039,22 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2924,7 +2932,7 @@
       <c r="BQ2" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR2" s="26" t="s">
+      <c r="BR2" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS2" s="15" t="s">
@@ -2933,7 +2941,7 @@
       <c r="BT2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BU2" s="29" t="s">
+      <c r="BU2" s="30" t="s">
         <v>132</v>
       </c>
       <c r="BV2" s="24" t="s">
@@ -3020,7 +3028,7 @@
       <c r="CW2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX2" s="29" t="s">
+      <c r="CX2" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY2" s="17" t="s">
@@ -3235,7 +3243,7 @@
       <c r="BQ3" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR3" s="26" t="s">
+      <c r="BR3" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS3" s="15" t="s">
@@ -3244,7 +3252,7 @@
       <c r="BT3" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="BU3" s="29" t="s">
+      <c r="BU3" s="30" t="s">
         <v>158</v>
       </c>
       <c r="BV3" s="24" t="s">
@@ -3331,7 +3339,7 @@
       <c r="CW3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX3" s="29" t="s">
+      <c r="CX3" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY3" s="17" t="s">
@@ -3546,7 +3554,7 @@
       <c r="BQ4" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR4" s="26" t="s">
+      <c r="BR4" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS4" s="15" t="s">
@@ -3555,7 +3563,7 @@
       <c r="BT4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="BU4" s="29" t="s">
+      <c r="BU4" s="30" t="s">
         <v>172</v>
       </c>
       <c r="BV4" s="24" t="s">
@@ -3642,7 +3650,7 @@
       <c r="CW4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX4" s="29" t="s">
+      <c r="CX4" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY4" s="17" t="s">
@@ -3857,7 +3865,7 @@
       <c r="BQ5" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR5" s="26" t="s">
+      <c r="BR5" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS5" s="15" t="s">
@@ -3866,7 +3874,7 @@
       <c r="BT5" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="BU5" s="29" t="s">
+      <c r="BU5" s="30" t="s">
         <v>185</v>
       </c>
       <c r="BV5" s="24" t="s">
@@ -3953,7 +3961,7 @@
       <c r="CW5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX5" s="29" t="s">
+      <c r="CX5" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY5" s="17" t="s">
@@ -4168,7 +4176,7 @@
       <c r="BQ6" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR6" s="26" t="s">
+      <c r="BR6" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS6" s="15" t="s">
@@ -4264,7 +4272,7 @@
       <c r="CW6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX6" s="29" t="s">
+      <c r="CX6" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY6" s="17" t="s">
@@ -4479,7 +4487,7 @@
       <c r="BQ7" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR7" s="26" t="s">
+      <c r="BR7" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS7" s="15" t="s">
@@ -4575,7 +4583,7 @@
       <c r="CW7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX7" s="29" t="s">
+      <c r="CX7" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY7" s="17" t="s">
@@ -4790,7 +4798,7 @@
       <c r="BQ8" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR8" s="26" t="s">
+      <c r="BR8" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS8" s="15" t="s">
@@ -4886,7 +4894,7 @@
       <c r="CW8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX8" s="29" t="s">
+      <c r="CX8" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY8" s="17" t="s">
@@ -4894,7 +4902,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -5101,7 +5109,7 @@
       <c r="BQ9" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR9" s="26" t="s">
+      <c r="BR9" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS9" s="15" t="s">
@@ -5197,7 +5205,7 @@
       <c r="CW9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX9" s="29" t="s">
+      <c r="CX9" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY9" s="17" t="s">
@@ -5412,7 +5420,7 @@
       <c r="BQ10" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR10" s="26" t="s">
+      <c r="BR10" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS10" s="15" t="s">
@@ -5508,7 +5516,7 @@
       <c r="CW10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX10" s="29" t="s">
+      <c r="CX10" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY10" s="17" t="s">
@@ -5723,7 +5731,7 @@
       <c r="BQ11" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR11" s="26" t="s">
+      <c r="BR11" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS11" s="15" t="s">
@@ -5819,7 +5827,7 @@
       <c r="CW11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX11" s="29" t="s">
+      <c r="CX11" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY11" s="17" t="s">
@@ -6034,7 +6042,7 @@
       <c r="BQ12" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR12" s="26" t="s">
+      <c r="BR12" s="29" t="s">
         <v>143</v>
       </c>
       <c r="BS12" s="15" t="s">
@@ -6130,7 +6138,7 @@
       <c r="CW12" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="CX12" s="29" t="s">
+      <c r="CX12" s="30" t="s">
         <v>152</v>
       </c>
       <c r="CY12" s="17" t="s">
@@ -6138,13 +6146,13 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -7570,19 +7578,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>247</v>
       </c>
       <c r="F1" s="13"/>
@@ -7608,25 +7616,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10626,102 +10634,102 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10754,7 +10762,7 @@
       <c r="AE2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10787,7 +10795,7 @@
       <c r="AE3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -10820,7 +10828,7 @@
       <c r="AE4" s="15"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -13957,13 +13965,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>258</v>
       </c>
       <c r="D1" s="13"/>
@@ -13994,7 +14002,7 @@
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="36">
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -14005,7 +14013,7 @@
       <c r="A3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="36">
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -14016,7 +14024,7 @@
       <c r="A4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="36">
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -14027,7 +14035,7 @@
       <c r="A5" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="36">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -14038,7 +14046,7 @@
       <c r="A6" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="36">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -14049,7 +14057,7 @@
       <c r="A7" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -14060,7 +14068,7 @@
       <c r="A8" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -14068,10 +14076,10 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -14082,7 +14090,7 @@
       <c r="A10" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -14093,7 +14101,7 @@
       <c r="A11" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -14104,7 +14112,7 @@
       <c r="A12" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -17127,25 +17135,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -3731,8 +3731,8 @@
       <c r="AD5" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AE5" s="15" t="s">
-        <v>134</v>
+      <c r="AE5" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="AF5" s="26" t="s">
         <v>130</v>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="pKSPOoZkgIi1MSbfavyx6K8+EtSbkaWyTC5ZU30o68c="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="cpRvQhvlvgQf0zj2CuPekQC267dwnxpfNJ4oT8RowdE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -380,7 +380,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.LEC.01</t>
+    <t>ART_RT_MAT_001_LEC_01</t>
   </si>
   <si>
     <t>$NU</t>
@@ -482,7 +482,7 @@
     <t>RT.MAT.001.MAJ.01</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.MAJ.01</t>
+    <t>ART_RT_MAT_001_MAJ_01</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.MAJ.01</t>
@@ -521,7 +521,7 @@
     <t>RT.MAT.001.SUP.01</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.SUP.01</t>
+    <t>ART_RT_MAT_001_SUP_01</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.SUP.01</t>
@@ -557,7 +557,7 @@
     <t>RT.MAT.001.REC.01</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.REC.01</t>
+    <t>ART_RT_MAT_001_REC_01</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.REC.01</t>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>ID_NUMORD</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>CAS DE TEST (MATDOC)</t>
@@ -946,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1028,6 +1034,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1041,6 +1050,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2377,7 +2389,7 @@
     <col customWidth="1" min="36" max="36" width="20.0"/>
     <col customWidth="1" min="37" max="37" width="16.75"/>
     <col customWidth="1" min="42" max="42" width="19.75"/>
-    <col customWidth="1" min="51" max="51" width="24.0"/>
+    <col customWidth="1" min="51" max="51" width="24.25"/>
     <col customWidth="1" min="53" max="53" width="19.25"/>
     <col customWidth="1" min="63" max="63" width="25.88"/>
     <col customWidth="1" min="65" max="65" width="17.13"/>
@@ -3031,7 +3043,7 @@
       <c r="D3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3342,7 +3354,7 @@
       <c r="D4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -3653,7 +3665,7 @@
       <c r="D5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="31" t="s">
         <v>178</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -4885,7 +4897,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>214</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -6129,13 +6141,13 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -7561,19 +7573,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>243</v>
       </c>
       <c r="F1" s="13"/>
@@ -7599,25 +7611,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10610,412 +10622,2201 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
     <col customWidth="1" min="9" max="9" width="13.5"/>
+    <col customWidth="1" min="12" max="12" width="24.25"/>
+    <col customWidth="1" min="14" max="14" width="13.75"/>
+    <col customWidth="1" min="20" max="20" width="16.75"/>
+    <col customWidth="1" min="21" max="21" width="24.63"/>
+    <col customWidth="1" min="22" max="22" width="17.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
+      <c r="A3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="37">
+        <v>1001.0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
+      <c r="A4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1002.0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
+      <c r="A5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1003.0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1004.0</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1005.0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC7" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
+      <c r="A8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1006.0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
+      <c r="A9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="37">
+        <v>1007.0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1008.0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1009.0</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC11" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD11" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="37">
+        <v>1010.0</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="37">
+        <v>1011.0</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD13" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="37">
+        <v>1012.0</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC14" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE14" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="37">
+        <v>1013.0</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD15" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE15" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
+      <c r="A16" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="37">
+        <v>1014.0</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC16" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1015.0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC17" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD17" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE17" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="37">
+        <v>1016.0</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC18" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD18" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE18" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="37">
+        <v>1017.0</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC19" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD19" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE19" s="15" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="37">
+        <v>1018.0</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC20" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD20" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="37">
+        <v>1019.0</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="37">
+        <v>1020.0</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB22" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD22" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE22" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="37">
+        <v>1021.0</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB23" s="25">
+        <v>1100.0</v>
+      </c>
+      <c r="AC23" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD23" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -13885,19 +15686,19 @@
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
     </row>
     <row r="985">
@@ -13917,6 +15718,21 @@
     </row>
     <row r="990">
       <c r="A990" s="2"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -13948,14 +15764,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>254</v>
+      <c r="C1" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13985,121 +15801,121 @@
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="38">
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="38">
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="38">
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="38">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="38">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="38">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="38">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="38">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="38">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="38">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -17087,10 +18903,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17118,25 +18934,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -449,7 +449,7 @@
     <t>COMPTA01</t>
   </si>
   <si>
-    <t>$TBD$0</t>
+    <t>$TBD*0</t>
   </si>
   <si>
     <t>MAT0010</t>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="cpRvQhvlvgQf0zj2CuPekQC267dwnxpfNJ4oT8RowdE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="h2bWJnmsxdDLywbYdvSNqPQ2TNdpfBrR8+eDdw2JRx0="/>
     </ext>
   </extLst>
 </workbook>
@@ -446,7 +446,7 @@
     <t>AFF COMPTABLE 10</t>
   </si>
   <si>
-    <t>COMPTA01</t>
+    <t>REFCOMPTA01</t>
   </si>
   <si>
     <t>$TBD*0</t>
@@ -614,7 +614,7 @@
     <t>AFF COMPTABLE 13</t>
   </si>
   <si>
-    <t>COMPTA02</t>
+    <t>REFCOMPTA02</t>
   </si>
   <si>
     <t>MAT0013</t>
@@ -2393,6 +2393,7 @@
     <col customWidth="1" min="53" max="53" width="19.25"/>
     <col customWidth="1" min="63" max="63" width="25.88"/>
     <col customWidth="1" min="65" max="65" width="17.13"/>
+    <col customWidth="1" min="66" max="66" width="13.25"/>
     <col customWidth="1" min="70" max="70" width="23.25"/>
     <col customWidth="1" min="73" max="73" width="22.0"/>
     <col customWidth="1" min="74" max="75" width="13.5"/>
@@ -6147,7 +6148,7 @@
       <c r="A14" s="32"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -6749,21 +6750,11 @@
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
-    </row>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -7539,11 +7530,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="259">
   <si>
     <t>Date</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>REFCOMPTA01</t>
-  </si>
-  <si>
-    <t>$TBD*0</t>
   </si>
   <si>
     <t>MAT0010</t>
@@ -952,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1027,9 +1024,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2928,16 +2922,16 @@
       <c r="BQ2" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="BS2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="BS2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT2" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU2" s="30" t="s">
+      <c r="BU2" s="29" t="s">
         <v>131</v>
       </c>
       <c r="BV2" s="24" t="s">
@@ -2959,13 +2953,13 @@
         <v>117</v>
       </c>
       <c r="CB2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CD2" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE2" s="17" t="s">
         <v>117</v>
@@ -2989,43 +2983,43 @@
         <v>122</v>
       </c>
       <c r="CL2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CM2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CO2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>131</v>
       </c>
       <c r="CQ2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CR2" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS2" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT2" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX2" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX2" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY2" s="15" t="s">
         <v>139</v>
@@ -3033,10 +3027,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>117</v>
@@ -3044,8 +3038,8 @@
       <c r="D3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>153</v>
+      <c r="E3" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>117</v>
@@ -3066,13 +3060,13 @@
         <v>1003.0</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>123</v>
@@ -3138,7 +3132,7 @@
         <v>117</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK3" s="15" t="s">
         <v>132</v>
@@ -3156,7 +3150,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ3" s="15" t="s">
         <v>134</v>
@@ -3183,13 +3177,13 @@
         <v>134</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AZ3" s="28" t="s">
         <v>136</v>
       </c>
       <c r="BA3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BB3" s="27">
         <v>44197.0</v>
@@ -3219,13 +3213,13 @@
         <v>117</v>
       </c>
       <c r="BK3" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BL3" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM3" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BN3" s="15" t="s">
         <v>141</v>
@@ -3239,17 +3233,17 @@
       <c r="BQ3" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR3" s="29" t="s">
-        <v>142</v>
+      <c r="BR3" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS3" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BU3" s="30" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="BU3" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="BV3" s="24" t="s">
         <v>126</v>
@@ -3270,14 +3264,14 @@
         <v>117</v>
       </c>
       <c r="CB3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CD3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="CD3" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="CE3" s="17" t="s">
         <v>117</v>
       </c>
@@ -3288,55 +3282,55 @@
         <v>117</v>
       </c>
       <c r="CH3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CI3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CJ3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CK3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CL3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="CO3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="CP3" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="CI3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="CJ3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="CK3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="CL3" s="15" t="s">
+      <c r="CQ3" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="CM3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="CR3" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS3" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT3" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX3" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX3" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY3" s="15" t="s">
         <v>139</v>
@@ -3344,10 +3338,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>117</v>
@@ -3355,8 +3349,8 @@
       <c r="D4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>166</v>
+      <c r="E4" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>117</v>
@@ -3377,13 +3371,13 @@
         <v>1004.0</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>123</v>
@@ -3449,7 +3443,7 @@
         <v>117</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK4" s="15" t="s">
         <v>132</v>
@@ -3467,7 +3461,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ4" s="15" t="s">
         <v>134</v>
@@ -3494,7 +3488,7 @@
         <v>134</v>
       </c>
       <c r="AY4" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AZ4" s="28" t="s">
         <v>136</v>
@@ -3530,13 +3524,13 @@
         <v>117</v>
       </c>
       <c r="BK4" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BL4" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BN4" s="15" t="s">
         <v>141</v>
@@ -3550,17 +3544,17 @@
       <c r="BQ4" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR4" s="29" t="s">
-        <v>142</v>
+      <c r="BR4" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS4" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU4" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="BU4" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="BV4" s="24" t="s">
         <v>126</v>
@@ -3581,14 +3575,14 @@
         <v>117</v>
       </c>
       <c r="CB4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC4" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC4" s="15" t="s">
+      <c r="CD4" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="CD4" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="CE4" s="17" t="s">
         <v>117</v>
       </c>
@@ -3599,55 +3593,55 @@
         <v>117</v>
       </c>
       <c r="CH4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CJ4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CO4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="CI4" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ4" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="CK4" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CQ4" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CO4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP4" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="CR4" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS4" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT4" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX4" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX4" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY4" s="15" t="s">
         <v>139</v>
@@ -3655,10 +3649,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>117</v>
@@ -3666,8 +3660,8 @@
       <c r="D5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>178</v>
+      <c r="E5" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>117</v>
@@ -3688,13 +3682,13 @@
         <v>1005.0</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>123</v>
@@ -3760,7 +3754,7 @@
         <v>117</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK5" s="15" t="s">
         <v>132</v>
@@ -3778,7 +3772,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ5" s="15" t="s">
         <v>134</v>
@@ -3805,13 +3799,13 @@
         <v>134</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BB5" s="27">
         <v>44197.0</v>
@@ -3841,13 +3835,13 @@
         <v>117</v>
       </c>
       <c r="BK5" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BL5" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM5" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BN5" s="15" t="s">
         <v>141</v>
@@ -3861,17 +3855,17 @@
       <c r="BQ5" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR5" s="29" t="s">
-        <v>142</v>
+      <c r="BR5" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS5" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU5" s="30" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="BU5" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="BV5" s="24" t="s">
         <v>126</v>
@@ -3892,14 +3886,14 @@
         <v>117</v>
       </c>
       <c r="CB5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC5" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC5" s="15" t="s">
+      <c r="CD5" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="CD5" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="CE5" s="17" t="s">
         <v>117</v>
       </c>
@@ -3910,55 +3904,55 @@
         <v>117</v>
       </c>
       <c r="CH5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CO5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CP5" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="CI5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CL5" s="15" t="s">
+      <c r="CQ5" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="CM5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CN5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CO5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CP5" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="CQ5" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="CR5" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS5" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT5" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX5" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX5" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY5" s="15" t="s">
         <v>139</v>
@@ -3966,10 +3960,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>117</v>
@@ -3999,7 +3993,7 @@
         <v>1006.0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>117</v>
@@ -4122,7 +4116,7 @@
         <v>136</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" s="27">
         <v>44197.0</v>
@@ -4152,16 +4146,16 @@
         <v>117</v>
       </c>
       <c r="BK6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL6" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="BL6" s="15" t="s">
+      <c r="BM6" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="BM6" s="15" t="s">
+      <c r="BN6" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="BN6" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="BO6" s="25">
         <v>1000.0</v>
@@ -4172,14 +4166,14 @@
       <c r="BQ6" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR6" s="29" t="s">
-        <v>142</v>
+      <c r="BR6" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS6" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT6" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BU6" s="16" t="s">
         <v>117</v>
@@ -4203,13 +4197,13 @@
         <v>117</v>
       </c>
       <c r="CB6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC6" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC6" s="15" t="s">
+      <c r="CD6" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD6" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE6" s="17" t="s">
         <v>117</v>
@@ -4254,22 +4248,22 @@
         <v>43861.0</v>
       </c>
       <c r="CS6" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT6" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX6" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX6" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY6" s="15" t="s">
         <v>139</v>
@@ -4277,10 +4271,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>117</v>
@@ -4310,7 +4304,7 @@
         <v>1007.0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>117</v>
@@ -4433,7 +4427,7 @@
         <v>136</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BB7" s="27">
         <v>44197.0</v>
@@ -4463,16 +4457,16 @@
         <v>117</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BL7" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM7" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO7" s="25">
         <v>1000.0</v>
@@ -4483,14 +4477,14 @@
       <c r="BQ7" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR7" s="29" t="s">
-        <v>142</v>
+      <c r="BR7" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS7" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BU7" s="16" t="s">
         <v>117</v>
@@ -4514,13 +4508,13 @@
         <v>117</v>
       </c>
       <c r="CB7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC7" s="15" t="s">
+      <c r="CD7" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD7" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE7" s="17" t="s">
         <v>117</v>
@@ -4565,33 +4559,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS7" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT7" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX7" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="CV7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX7" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="CY7" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>117</v>
@@ -4621,7 +4615,7 @@
         <v>1008.0</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>117</v>
@@ -4744,7 +4738,7 @@
         <v>136</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB8" s="27">
         <v>44197.0</v>
@@ -4774,16 +4768,16 @@
         <v>117</v>
       </c>
       <c r="BK8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="BL8" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM8" s="15" t="s">
-        <v>211</v>
-      </c>
       <c r="BN8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO8" s="25">
         <v>1000.0</v>
@@ -4794,14 +4788,14 @@
       <c r="BQ8" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR8" s="29" t="s">
-        <v>142</v>
+      <c r="BR8" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS8" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BU8" s="16" t="s">
         <v>117</v>
@@ -4825,13 +4819,13 @@
         <v>117</v>
       </c>
       <c r="CB8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC8" s="15" t="s">
+      <c r="CD8" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD8" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE8" s="17" t="s">
         <v>117</v>
@@ -4876,33 +4870,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS8" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT8" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="CV8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX8" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="CY8" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="B9" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>117</v>
@@ -4932,7 +4926,7 @@
         <v>1009.0</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>117</v>
@@ -5055,7 +5049,7 @@
         <v>136</v>
       </c>
       <c r="BA9" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BB9" s="27">
         <v>44197.0</v>
@@ -5085,16 +5079,16 @@
         <v>117</v>
       </c>
       <c r="BK9" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BL9" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM9" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BN9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO9" s="25">
         <v>1000.0</v>
@@ -5105,14 +5099,14 @@
       <c r="BQ9" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR9" s="29" t="s">
-        <v>142</v>
+      <c r="BR9" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS9" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT9" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BU9" s="16" t="s">
         <v>117</v>
@@ -5136,13 +5130,13 @@
         <v>117</v>
       </c>
       <c r="CB9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC9" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC9" s="15" t="s">
+      <c r="CD9" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD9" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE9" s="17" t="s">
         <v>117</v>
@@ -5187,22 +5181,22 @@
         <v>43861.0</v>
       </c>
       <c r="CS9" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX9" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX9" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY9" s="15" t="s">
         <v>139</v>
@@ -5210,10 +5204,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>117</v>
@@ -5243,7 +5237,7 @@
         <v>1010.0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>117</v>
@@ -5366,7 +5360,7 @@
         <v>136</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BB10" s="27">
         <v>44197.0</v>
@@ -5396,16 +5390,16 @@
         <v>117</v>
       </c>
       <c r="BK10" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM10" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="BL10" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM10" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="BN10" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO10" s="25">
         <v>1000.0</v>
@@ -5416,14 +5410,14 @@
       <c r="BQ10" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR10" s="29" t="s">
-        <v>142</v>
+      <c r="BR10" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS10" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU10" s="16" t="s">
         <v>117</v>
@@ -5447,13 +5441,13 @@
         <v>117</v>
       </c>
       <c r="CB10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC10" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC10" s="15" t="s">
+      <c r="CD10" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD10" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE10" s="17" t="s">
         <v>117</v>
@@ -5498,33 +5492,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS10" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT10" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX10" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="CV10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX10" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="CY10" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>117</v>
@@ -5554,7 +5548,7 @@
         <v>1011.0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>117</v>
@@ -5677,7 +5671,7 @@
         <v>136</v>
       </c>
       <c r="BA11" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BB11" s="27">
         <v>44197.0</v>
@@ -5707,16 +5701,16 @@
         <v>117</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BL11" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM11" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BN11" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO11" s="25">
         <v>1000.0</v>
@@ -5727,14 +5721,14 @@
       <c r="BQ11" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR11" s="29" t="s">
-        <v>142</v>
+      <c r="BR11" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS11" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT11" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>117</v>
@@ -5758,13 +5752,13 @@
         <v>117</v>
       </c>
       <c r="CB11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC11" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC11" s="15" t="s">
+      <c r="CD11" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD11" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE11" s="17" t="s">
         <v>117</v>
@@ -5809,33 +5803,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS11" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT11" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="CV11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX11" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="CY11" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>117</v>
@@ -5865,7 +5859,7 @@
         <v>1012.0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>117</v>
@@ -5988,7 +5982,7 @@
         <v>136</v>
       </c>
       <c r="BA12" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB12" s="27">
         <v>44197.0</v>
@@ -6018,16 +6012,16 @@
         <v>117</v>
       </c>
       <c r="BK12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM12" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="BL12" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM12" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="BN12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO12" s="25">
         <v>1000.0</v>
@@ -6038,14 +6032,14 @@
       <c r="BQ12" s="25">
         <v>1100.0</v>
       </c>
-      <c r="BR12" s="29" t="s">
-        <v>142</v>
+      <c r="BR12" s="29">
+        <v>0.0</v>
       </c>
       <c r="BS12" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BT12" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BU12" s="16" t="s">
         <v>117</v>
@@ -6069,13 +6063,13 @@
         <v>117</v>
       </c>
       <c r="CB12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC12" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CC12" s="15" t="s">
+      <c r="CD12" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="CD12" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="CE12" s="17" t="s">
         <v>117</v>
@@ -6120,32 +6114,32 @@
         <v>43861.0</v>
       </c>
       <c r="CS12" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT12" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX12" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="CV12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX12" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="CY12" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
@@ -7559,20 +7553,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>243</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -7597,25 +7591,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="35"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10620,97 +10614,97 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="34" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10718,7 +10712,7 @@
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>1000.0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -10743,7 +10737,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>117</v>
@@ -10782,10 +10776,10 @@
         <v>140</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>117</v>
@@ -10799,11 +10793,11 @@
       <c r="AB2" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="30" t="s">
-        <v>151</v>
+      <c r="AD2" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE2" s="15" t="s">
         <v>139</v>
@@ -10813,7 +10807,7 @@
       <c r="A3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>1001.0</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -10838,7 +10832,7 @@
         <v>126</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>117</v>
@@ -10877,10 +10871,10 @@
         <v>140</v>
       </c>
       <c r="W3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>117</v>
@@ -10894,11 +10888,11 @@
       <c r="AB3" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD3" s="30" t="s">
-        <v>151</v>
+      <c r="AD3" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>139</v>
@@ -10906,13 +10900,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="37">
+        <v>151</v>
+      </c>
+      <c r="B4" s="36">
         <v>1002.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>117</v>
@@ -10933,13 +10927,13 @@
         <v>126</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>117</v>
@@ -10966,16 +10960,16 @@
         <v>132</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>117</v>
@@ -10989,11 +10983,11 @@
       <c r="AB4" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD4" s="30" t="s">
-        <v>151</v>
+      <c r="AD4" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE4" s="15" t="s">
         <v>139</v>
@@ -11001,13 +10995,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="37">
+        <v>151</v>
+      </c>
+      <c r="B5" s="36">
         <v>1003.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>117</v>
@@ -11028,13 +11022,13 @@
         <v>126</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>117</v>
@@ -11061,16 +11055,16 @@
         <v>132</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y5" s="16" t="s">
         <v>117</v>
@@ -11084,11 +11078,11 @@
       <c r="AB5" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="30" t="s">
-        <v>151</v>
+      <c r="AD5" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE5" s="15" t="s">
         <v>139</v>
@@ -11096,13 +11090,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="37">
+        <v>164</v>
+      </c>
+      <c r="B6" s="36">
         <v>1004.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>117</v>
@@ -11123,13 +11117,13 @@
         <v>126</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>117</v>
@@ -11156,16 +11150,16 @@
         <v>132</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y6" s="16" t="s">
         <v>117</v>
@@ -11179,11 +11173,11 @@
       <c r="AB6" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC6" s="37" t="s">
+      <c r="AC6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD6" s="30" t="s">
-        <v>151</v>
+      <c r="AD6" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE6" s="15" t="s">
         <v>139</v>
@@ -11191,13 +11185,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="37">
+        <v>164</v>
+      </c>
+      <c r="B7" s="36">
         <v>1005.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>117</v>
@@ -11218,13 +11212,13 @@
         <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>117</v>
@@ -11251,16 +11245,16 @@
         <v>132</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y7" s="16" t="s">
         <v>117</v>
@@ -11274,11 +11268,11 @@
       <c r="AB7" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC7" s="37" t="s">
+      <c r="AC7" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD7" s="30" t="s">
-        <v>151</v>
+      <c r="AD7" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE7" s="15" t="s">
         <v>139</v>
@@ -11286,13 +11280,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="37">
+        <v>176</v>
+      </c>
+      <c r="B8" s="36">
         <v>1006.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>117</v>
@@ -11313,13 +11307,13 @@
         <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>117</v>
@@ -11346,16 +11340,16 @@
         <v>132</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y8" s="16" t="s">
         <v>117</v>
@@ -11369,11 +11363,11 @@
       <c r="AB8" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC8" s="37" t="s">
+      <c r="AC8" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD8" s="30" t="s">
-        <v>151</v>
+      <c r="AD8" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE8" s="15" t="s">
         <v>139</v>
@@ -11381,13 +11375,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="37">
+        <v>176</v>
+      </c>
+      <c r="B9" s="36">
         <v>1007.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>117</v>
@@ -11408,13 +11402,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>117</v>
@@ -11441,16 +11435,16 @@
         <v>132</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y9" s="16" t="s">
         <v>117</v>
@@ -11464,11 +11458,11 @@
       <c r="AB9" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC9" s="37" t="s">
+      <c r="AC9" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD9" s="30" t="s">
-        <v>151</v>
+      <c r="AD9" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE9" s="15" t="s">
         <v>139</v>
@@ -11476,13 +11470,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="36">
+        <v>1008.0</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B10" s="37">
-        <v>1008.0</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>117</v>
@@ -11503,7 +11497,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>117</v>
@@ -11539,13 +11533,13 @@
         <v>117</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y10" s="16" t="s">
         <v>117</v>
@@ -11559,11 +11553,11 @@
       <c r="AB10" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC10" s="37" t="s">
+      <c r="AC10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD10" s="30" t="s">
-        <v>151</v>
+      <c r="AD10" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE10" s="15" t="s">
         <v>139</v>
@@ -11571,13 +11565,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="36">
+        <v>1009.0</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B11" s="37">
-        <v>1009.0</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>117</v>
@@ -11598,7 +11592,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>117</v>
@@ -11634,13 +11628,13 @@
         <v>117</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X11" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y11" s="16" t="s">
         <v>117</v>
@@ -11654,11 +11648,11 @@
       <c r="AB11" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AC11" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD11" s="30" t="s">
-        <v>151</v>
+      <c r="AD11" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE11" s="15" t="s">
         <v>139</v>
@@ -11666,13 +11660,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="36">
+        <v>1010.0</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="B12" s="37">
-        <v>1010.0</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>117</v>
@@ -11693,7 +11687,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>117</v>
@@ -11729,13 +11723,13 @@
         <v>117</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y12" s="16" t="s">
         <v>117</v>
@@ -11749,25 +11743,25 @@
       <c r="AB12" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC12" s="37" t="s">
+      <c r="AC12" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD12" s="30" t="s">
-        <v>151</v>
+      <c r="AD12" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="36">
+        <v>1011.0</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="B13" s="37">
-        <v>1011.0</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>117</v>
@@ -11788,7 +11782,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>117</v>
@@ -11824,13 +11818,13 @@
         <v>117</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W13" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y13" s="16" t="s">
         <v>117</v>
@@ -11844,25 +11838,25 @@
       <c r="AB13" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC13" s="37" t="s">
+      <c r="AC13" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD13" s="30" t="s">
-        <v>151</v>
+      <c r="AD13" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1012.0</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" s="37">
-        <v>1012.0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>117</v>
@@ -11883,7 +11877,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>117</v>
@@ -11919,13 +11913,13 @@
         <v>117</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W14" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y14" s="16" t="s">
         <v>117</v>
@@ -11939,25 +11933,25 @@
       <c r="AB14" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC14" s="37" t="s">
+      <c r="AC14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD14" s="30" t="s">
-        <v>151</v>
+      <c r="AD14" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="36">
+        <v>1013.0</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="B15" s="37">
-        <v>1013.0</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>117</v>
@@ -11978,7 +11972,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>117</v>
@@ -12014,13 +12008,13 @@
         <v>117</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W15" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y15" s="16" t="s">
         <v>117</v>
@@ -12034,25 +12028,25 @@
       <c r="AB15" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC15" s="37" t="s">
+      <c r="AC15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD15" s="30" t="s">
-        <v>151</v>
+      <c r="AD15" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE15" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="36">
+        <v>1014.0</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B16" s="37">
-        <v>1014.0</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>117</v>
@@ -12073,7 +12067,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>117</v>
@@ -12109,13 +12103,13 @@
         <v>117</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y16" s="16" t="s">
         <v>117</v>
@@ -12129,11 +12123,11 @@
       <c r="AB16" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC16" s="37" t="s">
+      <c r="AC16" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD16" s="30" t="s">
-        <v>151</v>
+      <c r="AD16" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE16" s="15" t="s">
         <v>139</v>
@@ -12141,13 +12135,13 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1015.0</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B17" s="37">
-        <v>1015.0</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>117</v>
@@ -12168,7 +12162,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>117</v>
@@ -12204,13 +12198,13 @@
         <v>117</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W17" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y17" s="16" t="s">
         <v>117</v>
@@ -12224,11 +12218,11 @@
       <c r="AB17" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC17" s="37" t="s">
+      <c r="AC17" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD17" s="30" t="s">
-        <v>151</v>
+      <c r="AD17" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE17" s="15" t="s">
         <v>139</v>
@@ -12236,13 +12230,13 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="37">
+        <v>225</v>
+      </c>
+      <c r="B18" s="36">
         <v>1016.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>117</v>
@@ -12263,7 +12257,7 @@
         <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>117</v>
@@ -12299,13 +12293,13 @@
         <v>117</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y18" s="16" t="s">
         <v>117</v>
@@ -12319,25 +12313,25 @@
       <c r="AB18" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC18" s="37" t="s">
+      <c r="AC18" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD18" s="30" t="s">
-        <v>151</v>
+      <c r="AD18" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="37">
+        <v>232</v>
+      </c>
+      <c r="B19" s="36">
         <v>1017.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>117</v>
@@ -12358,7 +12352,7 @@
         <v>126</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>117</v>
@@ -12394,13 +12388,13 @@
         <v>117</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W19" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y19" s="16" t="s">
         <v>117</v>
@@ -12414,25 +12408,25 @@
       <c r="AB19" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC19" s="37" t="s">
+      <c r="AC19" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD19" s="30" t="s">
-        <v>151</v>
+      <c r="AD19" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1018.0</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B20" s="37">
-        <v>1018.0</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>117</v>
@@ -12453,7 +12447,7 @@
         <v>126</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>117</v>
@@ -12489,13 +12483,13 @@
         <v>117</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y20" s="16" t="s">
         <v>117</v>
@@ -12509,25 +12503,25 @@
       <c r="AB20" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC20" s="37" t="s">
+      <c r="AC20" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD20" s="30" t="s">
-        <v>151</v>
+      <c r="AD20" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="36">
+        <v>1019.0</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B21" s="37">
-        <v>1019.0</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>117</v>
@@ -12548,7 +12542,7 @@
         <v>126</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>117</v>
@@ -12584,13 +12578,13 @@
         <v>117</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y21" s="16" t="s">
         <v>117</v>
@@ -12604,25 +12598,25 @@
       <c r="AB21" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC21" s="37" t="s">
+      <c r="AC21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD21" s="30" t="s">
-        <v>151</v>
+      <c r="AD21" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE21" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="36">
+        <v>1020.0</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="B22" s="37">
-        <v>1020.0</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>117</v>
@@ -12643,7 +12637,7 @@
         <v>126</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>117</v>
@@ -12679,13 +12673,13 @@
         <v>117</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y22" s="16" t="s">
         <v>117</v>
@@ -12699,11 +12693,11 @@
       <c r="AB22" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC22" s="37" t="s">
+      <c r="AC22" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD22" s="30" t="s">
-        <v>151</v>
+      <c r="AD22" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>139</v>
@@ -12711,13 +12705,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="36">
+        <v>1021.0</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="B23" s="37">
-        <v>1021.0</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>117</v>
@@ -12738,7 +12732,7 @@
         <v>126</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>117</v>
@@ -12774,13 +12768,13 @@
         <v>117</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="Y23" s="16" t="s">
         <v>117</v>
@@ -12794,11 +12788,11 @@
       <c r="AB23" s="25">
         <v>1100.0</v>
       </c>
-      <c r="AC23" s="37" t="s">
+      <c r="AC23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD23" s="30" t="s">
-        <v>151</v>
+      <c r="AD23" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AE23" s="15" t="s">
         <v>139</v>
@@ -15750,14 +15744,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>255</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>256</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -15787,121 +15781,121 @@
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="38">
+        <v>151</v>
+      </c>
+      <c r="B3" s="37">
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="38">
+        <v>164</v>
+      </c>
+      <c r="B4" s="37">
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="38">
+        <v>176</v>
+      </c>
+      <c r="B5" s="37">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="38">
+        <v>189</v>
+      </c>
+      <c r="B6" s="37">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="38">
+        <v>198</v>
+      </c>
+      <c r="B7" s="37">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="38">
+        <v>205</v>
+      </c>
+      <c r="B8" s="37">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="A9" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="37">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="38">
+        <v>213</v>
+      </c>
+      <c r="B10" s="37">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="38">
+        <v>225</v>
+      </c>
+      <c r="B11" s="37">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="38">
+        <v>232</v>
+      </c>
+      <c r="B12" s="37">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -18889,10 +18883,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -18920,25 +18914,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="35"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="261">
   <si>
     <t>Date</t>
   </si>
@@ -434,352 +434,358 @@
     <t>GROUPE01</t>
   </si>
   <si>
+    <t>REF FOURNISSEUR 08</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 08</t>
+  </si>
+  <si>
+    <t>REFCOMPTA01</t>
+  </si>
+  <si>
+    <t>MAT0008</t>
+  </si>
+  <si>
+    <t>METH01</t>
+  </si>
+  <si>
+    <t>ETAVIS01</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 08</t>
+  </si>
+  <si>
+    <t>HEURES</t>
+  </si>
+  <si>
+    <t>GAR12M</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_MAJ_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 09</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 09</t>
+  </si>
+  <si>
+    <t>MAT0009</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 09</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_SUP_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
     <t>REF FOURNISSEUR 10</t>
   </si>
   <si>
-    <t>IMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
+    <t>IMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 11</t>
+  </si>
+  <si>
+    <t>MAT0011</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 11</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_REC_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 11</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 12</t>
+  </si>
+  <si>
+    <t>MAT0012</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 12</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 12</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 13</t>
+  </si>
+  <si>
+    <t>REFCOMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0013</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 13</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 14</t>
+  </si>
+  <si>
+    <t>MAT0014</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 14</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 15</t>
+  </si>
+  <si>
+    <t>MAT0015</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>MAT.UPD.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 15</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 16</t>
+  </si>
+  <si>
+    <t>MAT0016</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 16</t>
+  </si>
+  <si>
+    <t>IMP.UPD.TR.BTR.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 17</t>
+  </si>
+  <si>
+    <t>MAT0017</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 17</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 18</t>
+  </si>
+  <si>
+    <t>MAT0018</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 18</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 19</t>
+  </si>
+  <si>
+    <t>MAT0019</t>
+  </si>
+  <si>
+    <t>CAS DE TEST (MAT_CONTRA)</t>
+  </si>
+  <si>
+    <t>ID_CODCONTRA</t>
+  </si>
+  <si>
+    <t>ST_TYP</t>
+  </si>
+  <si>
+    <t>ST_DEF</t>
+  </si>
+  <si>
+    <t>CAS DE TEST (BT_MAT)</t>
+  </si>
+  <si>
+    <t>ID_NUMMVT</t>
+  </si>
+  <si>
+    <t>ID_NUMBT</t>
+  </si>
+  <si>
+    <t>ID_DTMOU</t>
+  </si>
+  <si>
+    <t>ST_CODEMP</t>
+  </si>
+  <si>
+    <t>ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>ST_PRECDE</t>
+  </si>
+  <si>
+    <t>NU_NUMCDE</t>
+  </si>
+  <si>
+    <t>ID_NUMORD</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>AFF COMPTABLE 10</t>
-  </si>
-  <si>
-    <t>REFCOMPTA01</t>
-  </si>
-  <si>
-    <t>MAT0010</t>
-  </si>
-  <si>
-    <t>METH01</t>
-  </si>
-  <si>
-    <t>ETAVIS01</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 10</t>
-  </si>
-  <si>
-    <t>HEURES</t>
-  </si>
-  <si>
-    <t>GAR12M</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_MAJ_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 09</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 09</t>
-  </si>
-  <si>
-    <t>MAT0009</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 09</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_SUP_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 11</t>
-  </si>
-  <si>
-    <t>MAT0011</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 11</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_REC_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 11</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 12</t>
-  </si>
-  <si>
-    <t>MAT0012</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 12</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 12</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 13</t>
-  </si>
-  <si>
-    <t>REFCOMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0013</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 13</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 14</t>
-  </si>
-  <si>
-    <t>MAT0014</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 14</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 15</t>
-  </si>
-  <si>
-    <t>MAT0015</t>
-  </si>
-  <si>
-    <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>MAT.UPD.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 15</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 16</t>
-  </si>
-  <si>
-    <t>MAT0016</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 16</t>
-  </si>
-  <si>
-    <t>IMP.UPD.TR.BTR.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 17</t>
-  </si>
-  <si>
-    <t>MAT0017</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 17</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 18</t>
-  </si>
-  <si>
-    <t>MAT0018</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 18</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 19</t>
-  </si>
-  <si>
-    <t>MAT0019</t>
-  </si>
-  <si>
-    <t>CAS DE TEST (MAT_CONTRA)</t>
-  </si>
-  <si>
-    <t>ID_CODCONTRA</t>
-  </si>
-  <si>
-    <t>ST_TYP</t>
-  </si>
-  <si>
-    <t>ST_DEF</t>
-  </si>
-  <si>
-    <t>CAS DE TEST (BT_MAT)</t>
-  </si>
-  <si>
-    <t>ID_NUMMVT</t>
-  </si>
-  <si>
-    <t>ID_NUMBT</t>
-  </si>
-  <si>
-    <t>ID_DTMOU</t>
-  </si>
-  <si>
-    <t>ST_CODEMP</t>
-  </si>
-  <si>
-    <t>ID_NUMCDE</t>
-  </si>
-  <si>
-    <t>ST_PRECDE</t>
-  </si>
-  <si>
-    <t>NU_NUMCDE</t>
-  </si>
-  <si>
-    <t>ID_NUMORD</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
   <si>
     <t>D</t>
@@ -3494,7 +3500,7 @@
         <v>136</v>
       </c>
       <c r="BA4" s="15" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="BB4" s="27">
         <v>44197.0</v>
@@ -3524,13 +3530,13 @@
         <v>117</v>
       </c>
       <c r="BK4" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BL4" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM4" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BN4" s="15" t="s">
         <v>141</v>
@@ -3551,7 +3557,7 @@
         <v>117</v>
       </c>
       <c r="BT4" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BU4" s="29" t="s">
         <v>168</v>
@@ -3605,22 +3611,22 @@
         <v>167</v>
       </c>
       <c r="CL4" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CM4" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CN4" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CO4" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CP4" s="15" t="s">
         <v>168</v>
       </c>
       <c r="CQ4" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CR4" s="27">
         <v>43861.0</v>
@@ -3649,10 +3655,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>117</v>
@@ -3661,7 +3667,7 @@
         <v>118</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>117</v>
@@ -3682,13 +3688,13 @@
         <v>1005.0</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>117</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>123</v>
@@ -3754,7 +3760,7 @@
         <v>117</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK5" s="15" t="s">
         <v>132</v>
@@ -3772,7 +3778,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ5" s="15" t="s">
         <v>134</v>
@@ -3799,13 +3805,13 @@
         <v>134</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BB5" s="27">
         <v>44197.0</v>
@@ -3835,13 +3841,13 @@
         <v>117</v>
       </c>
       <c r="BK5" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BL5" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM5" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BN5" s="15" t="s">
         <v>141</v>
@@ -3862,10 +3868,10 @@
         <v>117</v>
       </c>
       <c r="BT5" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BU5" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BV5" s="24" t="s">
         <v>126</v>
@@ -3904,34 +3910,34 @@
         <v>117</v>
       </c>
       <c r="CH5" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CI5" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CK5" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CL5" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CM5" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CN5" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CO5" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CP5" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CQ5" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CR5" s="27">
         <v>43861.0</v>
@@ -3960,10 +3966,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>117</v>
@@ -3993,7 +3999,7 @@
         <v>1006.0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>117</v>
@@ -4116,7 +4122,7 @@
         <v>136</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BB6" s="27">
         <v>44197.0</v>
@@ -4146,16 +4152,16 @@
         <v>117</v>
       </c>
       <c r="BK6" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BL6" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BM6" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BN6" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO6" s="25">
         <v>1000.0</v>
@@ -4173,7 +4179,7 @@
         <v>117</v>
       </c>
       <c r="BT6" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BU6" s="16" t="s">
         <v>117</v>
@@ -4271,10 +4277,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>117</v>
@@ -4304,7 +4310,7 @@
         <v>1007.0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>117</v>
@@ -4427,7 +4433,7 @@
         <v>136</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BB7" s="27">
         <v>44197.0</v>
@@ -4457,16 +4463,16 @@
         <v>117</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BL7" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM7" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO7" s="25">
         <v>1000.0</v>
@@ -4484,7 +4490,7 @@
         <v>117</v>
       </c>
       <c r="BT7" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BU7" s="16" t="s">
         <v>117</v>
@@ -4577,15 +4583,15 @@
         <v>150</v>
       </c>
       <c r="CY7" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>117</v>
@@ -4615,7 +4621,7 @@
         <v>1008.0</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>117</v>
@@ -4738,7 +4744,7 @@
         <v>136</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BB8" s="27">
         <v>44197.0</v>
@@ -4768,16 +4774,16 @@
         <v>117</v>
       </c>
       <c r="BK8" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BL8" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BM8" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BN8" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO8" s="25">
         <v>1000.0</v>
@@ -4795,7 +4801,7 @@
         <v>117</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BU8" s="16" t="s">
         <v>117</v>
@@ -4888,15 +4894,15 @@
         <v>150</v>
       </c>
       <c r="CY8" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>117</v>
@@ -4926,7 +4932,7 @@
         <v>1009.0</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>117</v>
@@ -5049,7 +5055,7 @@
         <v>136</v>
       </c>
       <c r="BA9" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BB9" s="27">
         <v>44197.0</v>
@@ -5079,16 +5085,16 @@
         <v>117</v>
       </c>
       <c r="BK9" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BL9" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM9" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BN9" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO9" s="25">
         <v>1000.0</v>
@@ -5106,7 +5112,7 @@
         <v>117</v>
       </c>
       <c r="BT9" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BU9" s="16" t="s">
         <v>117</v>
@@ -5204,10 +5210,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>117</v>
@@ -5237,7 +5243,7 @@
         <v>1010.0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>117</v>
@@ -5360,7 +5366,7 @@
         <v>136</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BB10" s="27">
         <v>44197.0</v>
@@ -5390,16 +5396,16 @@
         <v>117</v>
       </c>
       <c r="BK10" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BL10" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BM10" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BN10" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO10" s="25">
         <v>1000.0</v>
@@ -5417,7 +5423,7 @@
         <v>117</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BU10" s="16" t="s">
         <v>117</v>
@@ -5510,15 +5516,15 @@
         <v>150</v>
       </c>
       <c r="CY10" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>117</v>
@@ -5548,7 +5554,7 @@
         <v>1011.0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>117</v>
@@ -5671,7 +5677,7 @@
         <v>136</v>
       </c>
       <c r="BA11" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BB11" s="27">
         <v>44197.0</v>
@@ -5701,16 +5707,16 @@
         <v>117</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BL11" s="15" t="s">
         <v>139</v>
       </c>
       <c r="BM11" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BN11" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO11" s="25">
         <v>1000.0</v>
@@ -5728,7 +5734,7 @@
         <v>117</v>
       </c>
       <c r="BT11" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>117</v>
@@ -5821,15 +5827,15 @@
         <v>150</v>
       </c>
       <c r="CY11" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>117</v>
@@ -5859,7 +5865,7 @@
         <v>1012.0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>117</v>
@@ -5982,7 +5988,7 @@
         <v>136</v>
       </c>
       <c r="BA12" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BB12" s="27">
         <v>44197.0</v>
@@ -6012,16 +6018,16 @@
         <v>117</v>
       </c>
       <c r="BK12" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BL12" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BM12" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BN12" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BO12" s="25">
         <v>1000.0</v>
@@ -6039,7 +6045,7 @@
         <v>117</v>
       </c>
       <c r="BT12" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BU12" s="16" t="s">
         <v>117</v>
@@ -7554,19 +7560,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10615,10 +10621,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>14</v>
@@ -10627,7 +10633,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>16</v>
@@ -10639,10 +10645,10 @@
         <v>29</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>30</v>
@@ -10651,22 +10657,22 @@
         <v>63</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>48</v>
@@ -10737,7 +10743,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>117</v>
@@ -10773,7 +10779,7 @@
         <v>122</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>144</v>
@@ -10832,7 +10838,7 @@
         <v>126</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>117</v>
@@ -10868,7 +10874,7 @@
         <v>122</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>144</v>
@@ -10927,7 +10933,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>117</v>
@@ -11022,7 +11028,7 @@
         <v>126</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>117</v>
@@ -11117,7 +11123,7 @@
         <v>126</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>117</v>
@@ -11153,7 +11159,7 @@
         <v>167</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>144</v>
@@ -11212,7 +11218,7 @@
         <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>117</v>
@@ -11248,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>144</v>
@@ -11280,13 +11286,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" s="36">
         <v>1006.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>117</v>
@@ -11307,13 +11313,13 @@
         <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>117</v>
@@ -11340,10 +11346,10 @@
         <v>132</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W8" s="15" t="s">
         <v>144</v>
@@ -11375,13 +11381,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="36">
         <v>1007.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>117</v>
@@ -11402,13 +11408,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>117</v>
@@ -11435,10 +11441,10 @@
         <v>132</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>144</v>
@@ -11470,13 +11476,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" s="36">
         <v>1008.0</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>117</v>
@@ -11497,7 +11503,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>117</v>
@@ -11533,7 +11539,7 @@
         <v>117</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W10" s="15" t="s">
         <v>144</v>
@@ -11565,13 +11571,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B11" s="36">
         <v>1009.0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>117</v>
@@ -11592,7 +11598,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>117</v>
@@ -11628,7 +11634,7 @@
         <v>117</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W11" s="15" t="s">
         <v>144</v>
@@ -11660,13 +11666,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="36">
         <v>1010.0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>117</v>
@@ -11687,7 +11693,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>117</v>
@@ -11723,7 +11729,7 @@
         <v>117</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W12" s="15" t="s">
         <v>144</v>
@@ -11750,18 +11756,18 @@
         <v>150</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13" s="36">
         <v>1011.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>117</v>
@@ -11782,7 +11788,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>117</v>
@@ -11818,7 +11824,7 @@
         <v>117</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>144</v>
@@ -11845,18 +11851,18 @@
         <v>150</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="36">
         <v>1012.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>117</v>
@@ -11877,7 +11883,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>117</v>
@@ -11913,7 +11919,7 @@
         <v>117</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W14" s="15" t="s">
         <v>144</v>
@@ -11940,18 +11946,18 @@
         <v>150</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B15" s="36">
         <v>1013.0</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>117</v>
@@ -11972,7 +11978,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>117</v>
@@ -12008,7 +12014,7 @@
         <v>117</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W15" s="15" t="s">
         <v>144</v>
@@ -12035,18 +12041,18 @@
         <v>150</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B16" s="36">
         <v>1014.0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>117</v>
@@ -12067,7 +12073,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>117</v>
@@ -12103,7 +12109,7 @@
         <v>117</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W16" s="15" t="s">
         <v>144</v>
@@ -12135,13 +12141,13 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="36">
         <v>1015.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>117</v>
@@ -12162,7 +12168,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>117</v>
@@ -12198,7 +12204,7 @@
         <v>117</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W17" s="15" t="s">
         <v>144</v>
@@ -12230,13 +12236,13 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" s="36">
         <v>1016.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>117</v>
@@ -12257,7 +12263,7 @@
         <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>117</v>
@@ -12293,7 +12299,7 @@
         <v>117</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>144</v>
@@ -12320,18 +12326,18 @@
         <v>150</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B19" s="36">
         <v>1017.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>117</v>
@@ -12352,7 +12358,7 @@
         <v>126</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>117</v>
@@ -12388,7 +12394,7 @@
         <v>117</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W19" s="15" t="s">
         <v>144</v>
@@ -12415,18 +12421,18 @@
         <v>150</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" s="36">
         <v>1018.0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>117</v>
@@ -12447,7 +12453,7 @@
         <v>126</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>117</v>
@@ -12483,7 +12489,7 @@
         <v>117</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W20" s="15" t="s">
         <v>144</v>
@@ -12510,18 +12516,18 @@
         <v>150</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" s="36">
         <v>1019.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>117</v>
@@ -12542,7 +12548,7 @@
         <v>126</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>117</v>
@@ -12578,7 +12584,7 @@
         <v>117</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W21" s="15" t="s">
         <v>144</v>
@@ -12605,18 +12611,18 @@
         <v>150</v>
       </c>
       <c r="AE21" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" s="36">
         <v>1020.0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>117</v>
@@ -12637,7 +12643,7 @@
         <v>126</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>117</v>
@@ -12673,7 +12679,7 @@
         <v>117</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W22" s="15" t="s">
         <v>144</v>
@@ -12705,13 +12711,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="36">
         <v>1021.0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>117</v>
@@ -12732,7 +12738,7 @@
         <v>126</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>117</v>
@@ -12768,7 +12774,7 @@
         <v>117</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W23" s="15" t="s">
         <v>144</v>
@@ -15745,13 +15751,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -15785,7 +15791,7 @@
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -15796,7 +15802,7 @@
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -15807,95 +15813,95 @@
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" s="37">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="37">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B7" s="37">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" s="37">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="37">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B10" s="37">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B11" s="37">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" s="37">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -18883,10 +18889,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>TNR</t>
-  </si>
-  <si>
-    <t>Non suivi en Stock</t>
   </si>
   <si>
     <t>FOU.RT.MAT.001.LEC.01</t>
@@ -2365,15 +2362,13 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="1" max="1" width="23.25"/>
     <col customWidth="1" min="2" max="2" width="24.0"/>
     <col customWidth="1" min="3" max="3" width="11.0"/>
     <col customWidth="1" min="4" max="4" width="9.88"/>
@@ -2814,8 +2809,8 @@
       <c r="AE2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF2" s="26" t="s">
-        <v>130</v>
+      <c r="AF2" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG2" s="17" t="s">
         <v>120</v>
@@ -2827,10 +2822,10 @@
         <v>117</v>
       </c>
       <c r="AJ2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK2" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="AL2" s="25">
         <v>8000.0</v>
@@ -2845,40 +2840,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="AR2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AV2" s="17" t="s">
         <v>120</v>
       </c>
       <c r="AW2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY2" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="AX2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AZ2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AZ2" s="28" t="s">
+      <c r="BA2" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="BA2" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="BB2" s="27">
         <v>44197.0</v>
@@ -2908,16 +2903,16 @@
         <v>117</v>
       </c>
       <c r="BK2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BM2" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BN2" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="BO2" s="25">
         <v>1000.0</v>
@@ -2935,10 +2930,10 @@
         <v>117</v>
       </c>
       <c r="BT2" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BU2" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV2" s="24" t="s">
         <v>126</v>
@@ -2959,13 +2954,13 @@
         <v>117</v>
       </c>
       <c r="CB2" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CD2" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE2" s="17" t="s">
         <v>117</v>
@@ -2989,54 +2984,54 @@
         <v>122</v>
       </c>
       <c r="CL2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="CM2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="CN2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="CP2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="CQ2" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="CM2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="CN2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="CO2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="CP2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ2" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="CR2" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS2" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT2" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX2" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX2" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY2" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>117</v>
@@ -3045,7 +3040,7 @@
         <v>118</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>117</v>
@@ -3066,13 +3061,13 @@
         <v>1003.0</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>123</v>
@@ -3125,8 +3120,8 @@
       <c r="AE3" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF3" s="26" t="s">
-        <v>130</v>
+      <c r="AF3" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG3" s="17" t="s">
         <v>120</v>
@@ -3138,10 +3133,10 @@
         <v>117</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK3" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL3" s="25">
         <v>8000.0</v>
@@ -3156,40 +3151,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR3" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AV3" s="17" t="s">
         <v>120</v>
       </c>
       <c r="AW3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY3" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ3" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA3" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="AZ3" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA3" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="BB3" s="27">
         <v>44197.0</v>
@@ -3219,16 +3214,16 @@
         <v>117</v>
       </c>
       <c r="BK3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM3" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="BL3" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM3" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="BN3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO3" s="25">
         <v>1000.0</v>
@@ -3246,10 +3241,10 @@
         <v>117</v>
       </c>
       <c r="BT3" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BU3" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BV3" s="24" t="s">
         <v>126</v>
@@ -3270,14 +3265,14 @@
         <v>117</v>
       </c>
       <c r="CB3" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CD3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CD3" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="CE3" s="17" t="s">
         <v>117</v>
       </c>
@@ -3288,66 +3283,66 @@
         <v>117</v>
       </c>
       <c r="CH3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CI3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CJ3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CK3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="CO3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="CP3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="CI3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="CJ3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL3" s="15" t="s">
+      <c r="CQ3" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="CM3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="CO3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="CP3" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="CR3" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS3" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT3" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX3" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>117</v>
@@ -3356,7 +3351,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>117</v>
@@ -3377,13 +3372,13 @@
         <v>1004.0</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>123</v>
@@ -3436,8 +3431,8 @@
       <c r="AE4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF4" s="26" t="s">
-        <v>130</v>
+      <c r="AF4" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG4" s="17" t="s">
         <v>120</v>
@@ -3449,10 +3444,10 @@
         <v>117</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK4" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL4" s="25">
         <v>8000.0</v>
@@ -3467,40 +3462,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR4" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AV4" s="17" t="s">
         <v>120</v>
       </c>
       <c r="AW4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA4" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="AZ4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA4" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="BB4" s="27">
         <v>44197.0</v>
@@ -3530,16 +3525,16 @@
         <v>117</v>
       </c>
       <c r="BK4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="BL4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM4" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="BN4" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO4" s="25">
         <v>1000.0</v>
@@ -3557,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="BT4" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BU4" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BV4" s="24" t="s">
         <v>126</v>
@@ -3581,14 +3576,14 @@
         <v>117</v>
       </c>
       <c r="CB4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="15" t="s">
+      <c r="CD4" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="CE4" s="17" t="s">
         <v>117</v>
       </c>
@@ -3599,66 +3594,66 @@
         <v>117</v>
       </c>
       <c r="CH4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CI4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CJ4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CO4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="CI4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CK4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CQ4" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CO4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP4" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="CR4" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS4" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT4" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX4" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX4" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY4" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>117</v>
@@ -3667,7 +3662,7 @@
         <v>118</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>117</v>
@@ -3688,13 +3683,13 @@
         <v>1005.0</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>123</v>
@@ -3747,8 +3742,8 @@
       <c r="AE5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF5" s="26" t="s">
-        <v>130</v>
+      <c r="AF5" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG5" s="17" t="s">
         <v>120</v>
@@ -3760,10 +3755,10 @@
         <v>117</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL5" s="25">
         <v>8000.0</v>
@@ -3778,40 +3773,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AV5" s="17" t="s">
         <v>120</v>
       </c>
       <c r="AW5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY5" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA5" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="AZ5" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA5" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="BB5" s="27">
         <v>44197.0</v>
@@ -3841,16 +3836,16 @@
         <v>117</v>
       </c>
       <c r="BK5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM5" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="BL5" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM5" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="BN5" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO5" s="25">
         <v>1000.0</v>
@@ -3868,10 +3863,10 @@
         <v>117</v>
       </c>
       <c r="BT5" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BU5" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BV5" s="24" t="s">
         <v>126</v>
@@ -3892,14 +3887,14 @@
         <v>117</v>
       </c>
       <c r="CB5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC5" s="15" t="s">
+      <c r="CD5" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CD5" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="CE5" s="17" t="s">
         <v>117</v>
       </c>
@@ -3910,66 +3905,66 @@
         <v>117</v>
       </c>
       <c r="CH5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CO5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CP5" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="CI5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CL5" s="15" t="s">
+      <c r="CQ5" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="CM5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CN5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CO5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CP5" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="CQ5" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="CR5" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS5" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT5" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX5" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY5" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>117</v>
@@ -3999,7 +3994,7 @@
         <v>1006.0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>117</v>
@@ -4058,8 +4053,8 @@
       <c r="AE6" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF6" s="26" t="s">
-        <v>130</v>
+      <c r="AF6" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG6" s="17" t="s">
         <v>120</v>
@@ -4074,7 +4069,7 @@
         <v>117</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL6" s="25">
         <v>8000.0</v>
@@ -4092,16 +4087,16 @@
         <v>117</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT6" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU6" s="16" t="s">
         <v>127</v>
@@ -4110,19 +4105,19 @@
         <v>120</v>
       </c>
       <c r="AW6" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY6" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ6" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" s="27">
         <v>44197.0</v>
@@ -4152,16 +4147,16 @@
         <v>117</v>
       </c>
       <c r="BK6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL6" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="BL6" s="15" t="s">
+      <c r="BM6" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="BM6" s="15" t="s">
+      <c r="BN6" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="BN6" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="BO6" s="25">
         <v>1000.0</v>
@@ -4179,7 +4174,7 @@
         <v>117</v>
       </c>
       <c r="BT6" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BU6" s="16" t="s">
         <v>117</v>
@@ -4203,13 +4198,13 @@
         <v>117</v>
       </c>
       <c r="CB6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC6" s="15" t="s">
+      <c r="CD6" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD6" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE6" s="17" t="s">
         <v>117</v>
@@ -4254,33 +4249,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS6" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT6" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX6" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>117</v>
@@ -4310,7 +4305,7 @@
         <v>1007.0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>117</v>
@@ -4369,8 +4364,8 @@
       <c r="AE7" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF7" s="26" t="s">
-        <v>130</v>
+      <c r="AF7" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG7" s="17" t="s">
         <v>120</v>
@@ -4385,7 +4380,7 @@
         <v>117</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL7" s="25">
         <v>8000.0</v>
@@ -4403,16 +4398,16 @@
         <v>117</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR7" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU7" s="16" t="s">
         <v>127</v>
@@ -4421,19 +4416,19 @@
         <v>120</v>
       </c>
       <c r="AW7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY7" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ7" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BB7" s="27">
         <v>44197.0</v>
@@ -4463,16 +4458,16 @@
         <v>117</v>
       </c>
       <c r="BK7" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="BL7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM7" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="BN7" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO7" s="25">
         <v>1000.0</v>
@@ -4490,7 +4485,7 @@
         <v>117</v>
       </c>
       <c r="BT7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BU7" s="16" t="s">
         <v>117</v>
@@ -4514,13 +4509,13 @@
         <v>117</v>
       </c>
       <c r="CB7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC7" s="15" t="s">
+      <c r="CD7" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD7" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE7" s="17" t="s">
         <v>117</v>
@@ -4565,33 +4560,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS7" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT7" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX7" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY7" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>117</v>
@@ -4621,7 +4616,7 @@
         <v>1008.0</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>117</v>
@@ -4680,8 +4675,8 @@
       <c r="AE8" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF8" s="26" t="s">
-        <v>130</v>
+      <c r="AF8" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG8" s="17" t="s">
         <v>120</v>
@@ -4696,7 +4691,7 @@
         <v>117</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" s="25">
         <v>8000.0</v>
@@ -4714,16 +4709,16 @@
         <v>117</v>
       </c>
       <c r="AQ8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR8" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU8" s="16" t="s">
         <v>127</v>
@@ -4732,19 +4727,19 @@
         <v>120</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY8" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ8" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB8" s="27">
         <v>44197.0</v>
@@ -4774,16 +4769,16 @@
         <v>117</v>
       </c>
       <c r="BK8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="BL8" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM8" s="15" t="s">
-        <v>211</v>
-      </c>
       <c r="BN8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO8" s="25">
         <v>1000.0</v>
@@ -4801,7 +4796,7 @@
         <v>117</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BU8" s="16" t="s">
         <v>117</v>
@@ -4825,13 +4820,13 @@
         <v>117</v>
       </c>
       <c r="CB8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC8" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC8" s="15" t="s">
+      <c r="CD8" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD8" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE8" s="17" t="s">
         <v>117</v>
@@ -4876,33 +4871,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS8" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT8" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX8" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX8" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY8" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>117</v>
@@ -4932,7 +4927,7 @@
         <v>1009.0</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>117</v>
@@ -4991,8 +4986,8 @@
       <c r="AE9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF9" s="26" t="s">
-        <v>130</v>
+      <c r="AF9" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG9" s="17" t="s">
         <v>120</v>
@@ -5007,7 +5002,7 @@
         <v>117</v>
       </c>
       <c r="AK9" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" s="25">
         <v>8000.0</v>
@@ -5025,16 +5020,16 @@
         <v>117</v>
       </c>
       <c r="AQ9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR9" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU9" s="16" t="s">
         <v>127</v>
@@ -5043,19 +5038,19 @@
         <v>120</v>
       </c>
       <c r="AW9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ9" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA9" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BB9" s="27">
         <v>44197.0</v>
@@ -5085,16 +5080,16 @@
         <v>117</v>
       </c>
       <c r="BK9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM9" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="BL9" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM9" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="BN9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO9" s="25">
         <v>1000.0</v>
@@ -5112,7 +5107,7 @@
         <v>117</v>
       </c>
       <c r="BT9" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BU9" s="16" t="s">
         <v>117</v>
@@ -5136,13 +5131,13 @@
         <v>117</v>
       </c>
       <c r="CB9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC9" s="15" t="s">
+      <c r="CD9" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD9" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE9" s="17" t="s">
         <v>117</v>
@@ -5187,33 +5182,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS9" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX9" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX9" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY9" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>117</v>
@@ -5243,7 +5238,7 @@
         <v>1010.0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>117</v>
@@ -5302,8 +5297,8 @@
       <c r="AE10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF10" s="26" t="s">
-        <v>130</v>
+      <c r="AF10" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG10" s="17" t="s">
         <v>120</v>
@@ -5318,7 +5313,7 @@
         <v>117</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" s="25">
         <v>8000.0</v>
@@ -5336,16 +5331,16 @@
         <v>117</v>
       </c>
       <c r="AQ10" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR10" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS10" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT10" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU10" s="16" t="s">
         <v>127</v>
@@ -5354,19 +5349,19 @@
         <v>120</v>
       </c>
       <c r="AW10" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX10" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY10" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ10" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BB10" s="27">
         <v>44197.0</v>
@@ -5396,16 +5391,16 @@
         <v>117</v>
       </c>
       <c r="BK10" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM10" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="BL10" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM10" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="BN10" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO10" s="25">
         <v>1000.0</v>
@@ -5423,7 +5418,7 @@
         <v>117</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU10" s="16" t="s">
         <v>117</v>
@@ -5447,13 +5442,13 @@
         <v>117</v>
       </c>
       <c r="CB10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC10" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC10" s="15" t="s">
+      <c r="CD10" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD10" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE10" s="17" t="s">
         <v>117</v>
@@ -5498,33 +5493,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS10" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT10" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU10" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX10" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX10" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY10" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>117</v>
@@ -5554,7 +5549,7 @@
         <v>1011.0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>117</v>
@@ -5613,8 +5608,8 @@
       <c r="AE11" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF11" s="26" t="s">
-        <v>130</v>
+      <c r="AF11" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG11" s="17" t="s">
         <v>120</v>
@@ -5629,7 +5624,7 @@
         <v>117</v>
       </c>
       <c r="AK11" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL11" s="25">
         <v>8000.0</v>
@@ -5647,16 +5642,16 @@
         <v>117</v>
       </c>
       <c r="AQ11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR11" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU11" s="16" t="s">
         <v>127</v>
@@ -5665,19 +5660,19 @@
         <v>120</v>
       </c>
       <c r="AW11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY11" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ11" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA11" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BB11" s="27">
         <v>44197.0</v>
@@ -5707,16 +5702,16 @@
         <v>117</v>
       </c>
       <c r="BK11" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM11" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="BL11" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM11" s="15" t="s">
-        <v>231</v>
-      </c>
       <c r="BN11" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO11" s="25">
         <v>1000.0</v>
@@ -5734,7 +5729,7 @@
         <v>117</v>
       </c>
       <c r="BT11" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>117</v>
@@ -5758,13 +5753,13 @@
         <v>117</v>
       </c>
       <c r="CB11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC11" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC11" s="15" t="s">
+      <c r="CD11" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD11" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE11" s="17" t="s">
         <v>117</v>
@@ -5809,33 +5804,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS11" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT11" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX11" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY11" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>117</v>
@@ -5865,7 +5860,7 @@
         <v>1012.0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>117</v>
@@ -5924,8 +5919,8 @@
       <c r="AE12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF12" s="26" t="s">
-        <v>130</v>
+      <c r="AF12" s="26">
+        <v>0.0</v>
       </c>
       <c r="AG12" s="17" t="s">
         <v>120</v>
@@ -5940,7 +5935,7 @@
         <v>117</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL12" s="25">
         <v>8000.0</v>
@@ -5958,16 +5953,16 @@
         <v>117</v>
       </c>
       <c r="AQ12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR12" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AS12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU12" s="16" t="s">
         <v>127</v>
@@ -5976,19 +5971,19 @@
         <v>120</v>
       </c>
       <c r="AW12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY12" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AZ12" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA12" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB12" s="27">
         <v>44197.0</v>
@@ -6018,16 +6013,16 @@
         <v>117</v>
       </c>
       <c r="BK12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM12" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="BL12" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM12" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="BN12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO12" s="25">
         <v>1000.0</v>
@@ -6045,7 +6040,7 @@
         <v>117</v>
       </c>
       <c r="BT12" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BU12" s="16" t="s">
         <v>117</v>
@@ -6069,13 +6064,13 @@
         <v>117</v>
       </c>
       <c r="CB12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC12" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CC12" s="15" t="s">
+      <c r="CD12" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="CD12" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="CE12" s="17" t="s">
         <v>117</v>
@@ -6120,25 +6115,25 @@
         <v>43861.0</v>
       </c>
       <c r="CS12" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CT12" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="CV12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX12" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="CY12" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -7560,19 +7555,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>243</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10621,10 +10616,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>14</v>
@@ -10633,7 +10628,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>16</v>
@@ -10645,10 +10640,10 @@
         <v>29</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>30</v>
@@ -10657,22 +10652,22 @@
         <v>63</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>251</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>252</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>48</v>
@@ -10743,13 +10738,13 @@
         <v>126</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>117</v>
@@ -10773,19 +10768,19 @@
         <v>117</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U2" s="19" t="s">
         <v>122</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>117</v>
@@ -10803,10 +10798,10 @@
         <v>129</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -10838,13 +10833,13 @@
         <v>126</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>117</v>
@@ -10868,19 +10863,19 @@
         <v>117</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>122</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>117</v>
@@ -10898,21 +10893,21 @@
         <v>129</v>
       </c>
       <c r="AD3" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="36">
         <v>1002.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>117</v>
@@ -10933,13 +10928,13 @@
         <v>126</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>117</v>
@@ -10963,19 +10958,19 @@
         <v>117</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>117</v>
@@ -10993,21 +10988,21 @@
         <v>129</v>
       </c>
       <c r="AD4" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="36">
         <v>1003.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>117</v>
@@ -11028,13 +11023,13 @@
         <v>126</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>117</v>
@@ -11058,19 +11053,19 @@
         <v>117</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y5" s="16" t="s">
         <v>117</v>
@@ -11088,21 +11083,21 @@
         <v>129</v>
       </c>
       <c r="AD5" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="36">
         <v>1004.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>117</v>
@@ -11123,13 +11118,13 @@
         <v>126</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>117</v>
@@ -11153,19 +11148,19 @@
         <v>117</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y6" s="16" t="s">
         <v>117</v>
@@ -11183,21 +11178,21 @@
         <v>129</v>
       </c>
       <c r="AD6" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="36">
         <v>1005.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>117</v>
@@ -11218,13 +11213,13 @@
         <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>117</v>
@@ -11248,19 +11243,19 @@
         <v>117</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y7" s="16" t="s">
         <v>117</v>
@@ -11278,21 +11273,21 @@
         <v>129</v>
       </c>
       <c r="AD7" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="36">
         <v>1006.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>117</v>
@@ -11313,13 +11308,13 @@
         <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>117</v>
@@ -11343,19 +11338,19 @@
         <v>117</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y8" s="16" t="s">
         <v>117</v>
@@ -11373,21 +11368,21 @@
         <v>129</v>
       </c>
       <c r="AD8" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="36">
         <v>1007.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>117</v>
@@ -11408,13 +11403,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>117</v>
@@ -11438,19 +11433,19 @@
         <v>117</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y9" s="16" t="s">
         <v>117</v>
@@ -11468,21 +11463,21 @@
         <v>129</v>
       </c>
       <c r="AD9" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="36">
         <v>1008.0</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>117</v>
@@ -11503,7 +11498,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>117</v>
@@ -11533,19 +11528,19 @@
         <v>117</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y10" s="16" t="s">
         <v>117</v>
@@ -11563,21 +11558,21 @@
         <v>129</v>
       </c>
       <c r="AD10" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE10" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="36">
         <v>1009.0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>117</v>
@@ -11598,7 +11593,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>117</v>
@@ -11628,19 +11623,19 @@
         <v>117</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U11" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X11" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y11" s="16" t="s">
         <v>117</v>
@@ -11658,21 +11653,21 @@
         <v>129</v>
       </c>
       <c r="AD11" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="36">
         <v>1010.0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>117</v>
@@ -11693,7 +11688,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>117</v>
@@ -11723,19 +11718,19 @@
         <v>117</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U12" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y12" s="16" t="s">
         <v>117</v>
@@ -11753,21 +11748,21 @@
         <v>129</v>
       </c>
       <c r="AD12" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="36">
         <v>1011.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>117</v>
@@ -11788,7 +11783,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>117</v>
@@ -11818,19 +11813,19 @@
         <v>117</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U13" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y13" s="16" t="s">
         <v>117</v>
@@ -11848,21 +11843,21 @@
         <v>129</v>
       </c>
       <c r="AD13" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="36">
         <v>1012.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>117</v>
@@ -11883,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>117</v>
@@ -11913,19 +11908,19 @@
         <v>117</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y14" s="16" t="s">
         <v>117</v>
@@ -11943,21 +11938,21 @@
         <v>129</v>
       </c>
       <c r="AD14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="36">
         <v>1013.0</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>117</v>
@@ -11978,7 +11973,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>117</v>
@@ -12008,19 +12003,19 @@
         <v>117</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y15" s="16" t="s">
         <v>117</v>
@@ -12038,21 +12033,21 @@
         <v>129</v>
       </c>
       <c r="AD15" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="36">
         <v>1014.0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>117</v>
@@ -12073,7 +12068,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>117</v>
@@ -12103,19 +12098,19 @@
         <v>117</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X16" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y16" s="16" t="s">
         <v>117</v>
@@ -12133,21 +12128,21 @@
         <v>129</v>
       </c>
       <c r="AD16" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE16" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="36">
         <v>1015.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>117</v>
@@ -12168,7 +12163,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>117</v>
@@ -12198,19 +12193,19 @@
         <v>117</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y17" s="16" t="s">
         <v>117</v>
@@ -12228,21 +12223,21 @@
         <v>129</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE17" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="36">
         <v>1016.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>117</v>
@@ -12263,7 +12258,7 @@
         <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>117</v>
@@ -12293,19 +12288,19 @@
         <v>117</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X18" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y18" s="16" t="s">
         <v>117</v>
@@ -12323,21 +12318,21 @@
         <v>129</v>
       </c>
       <c r="AD18" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="36">
         <v>1017.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>117</v>
@@ -12358,7 +12353,7 @@
         <v>126</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>117</v>
@@ -12388,19 +12383,19 @@
         <v>117</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W19" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y19" s="16" t="s">
         <v>117</v>
@@ -12418,21 +12413,21 @@
         <v>129</v>
       </c>
       <c r="AD19" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="36">
         <v>1018.0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>117</v>
@@ -12453,7 +12448,7 @@
         <v>126</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>117</v>
@@ -12483,19 +12478,19 @@
         <v>117</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U20" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X20" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y20" s="16" t="s">
         <v>117</v>
@@ -12513,21 +12508,21 @@
         <v>129</v>
       </c>
       <c r="AD20" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="36">
         <v>1019.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>117</v>
@@ -12548,7 +12543,7 @@
         <v>126</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>117</v>
@@ -12578,19 +12573,19 @@
         <v>117</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U21" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W21" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X21" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y21" s="16" t="s">
         <v>117</v>
@@ -12608,21 +12603,21 @@
         <v>129</v>
       </c>
       <c r="AD21" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE21" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="36">
         <v>1020.0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>117</v>
@@ -12643,7 +12638,7 @@
         <v>126</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>117</v>
@@ -12673,19 +12668,19 @@
         <v>117</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U22" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y22" s="16" t="s">
         <v>117</v>
@@ -12703,21 +12698,21 @@
         <v>129</v>
       </c>
       <c r="AD22" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE22" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="36">
         <v>1021.0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>117</v>
@@ -12738,7 +12733,7 @@
         <v>126</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>117</v>
@@ -12768,19 +12763,19 @@
         <v>117</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U23" s="16" t="s">
         <v>117</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="Y23" s="16" t="s">
         <v>117</v>
@@ -12798,10 +12793,10 @@
         <v>129</v>
       </c>
       <c r="AD23" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE23" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -15751,13 +15746,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -15791,117 +15786,117 @@
         <v>1002.0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="37">
         <v>1003.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="37">
         <v>1004.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="37">
         <v>1005.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="37">
         <v>1006.0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="37">
         <v>1007.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="37">
         <v>1008.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="37">
         <v>1009.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="37">
         <v>1010.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="37">
         <v>1011.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="37">
         <v>1012.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -18889,10 +18884,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -437,355 +437,355 @@
     <t>IMP.RT.MAT.001.LEC.01.........</t>
   </si>
   <si>
+    <t>AFF COMPTABLE 08</t>
+  </si>
+  <si>
+    <t>REFCOMPTA01</t>
+  </si>
+  <si>
+    <t>MAT0008</t>
+  </si>
+  <si>
+    <t>METH01</t>
+  </si>
+  <si>
+    <t>ETAVIS01</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 08</t>
+  </si>
+  <si>
+    <t>HEURES</t>
+  </si>
+  <si>
+    <t>GAR12M</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_MAJ_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 09</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 09</t>
+  </si>
+  <si>
+    <t>MAT0009</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 09</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_SUP_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 10</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 11</t>
+  </si>
+  <si>
+    <t>MAT0011</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 11</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_REC_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 11</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 12</t>
+  </si>
+  <si>
+    <t>MAT0012</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 12</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 12</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 13</t>
+  </si>
+  <si>
+    <t>REFCOMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0013</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 13</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 14</t>
+  </si>
+  <si>
+    <t>MAT0014</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 14</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 15</t>
+  </si>
+  <si>
+    <t>MAT0015</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>MAT.UPD.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 15</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 16</t>
+  </si>
+  <si>
+    <t>MAT0016</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 16</t>
+  </si>
+  <si>
+    <t>IMP.UPD.TR.BTR.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 17</t>
+  </si>
+  <si>
+    <t>MAT0017</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 17</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 18</t>
+  </si>
+  <si>
+    <t>MAT0018</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>CPT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 18</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 19</t>
+  </si>
+  <si>
+    <t>MAT0019</t>
+  </si>
+  <si>
+    <t>CAS DE TEST (MAT_CONTRA)</t>
+  </si>
+  <si>
+    <t>ID_CODCONTRA</t>
+  </si>
+  <si>
+    <t>ST_TYP</t>
+  </si>
+  <si>
+    <t>ST_DEF</t>
+  </si>
+  <si>
+    <t>CAS DE TEST (BT_MAT)</t>
+  </si>
+  <si>
+    <t>ID_NUMMVT</t>
+  </si>
+  <si>
+    <t>ID_NUMBT</t>
+  </si>
+  <si>
+    <t>ID_DTMOU</t>
+  </si>
+  <si>
+    <t>ST_CODEMP</t>
+  </si>
+  <si>
+    <t>ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>ST_PRECDE</t>
+  </si>
+  <si>
+    <t>NU_NUMCDE</t>
+  </si>
+  <si>
+    <t>ID_NUMORD</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 10</t>
+  </si>
+  <si>
     <t>CRITICITE01</t>
   </si>
   <si>
-    <t>AFF COMPTABLE 08</t>
-  </si>
-  <si>
-    <t>REFCOMPTA01</t>
-  </si>
-  <si>
-    <t>MAT0008</t>
-  </si>
-  <si>
-    <t>METH01</t>
-  </si>
-  <si>
-    <t>ETAVIS01</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 08</t>
-  </si>
-  <si>
-    <t>HEURES</t>
-  </si>
-  <si>
-    <t>GAR12M</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_MAJ_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 09</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 09</t>
-  </si>
-  <si>
-    <t>MAT0009</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 09</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_SUP_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 10</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 11</t>
-  </si>
-  <si>
-    <t>MAT0011</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 11</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_REC_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 11</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 12</t>
-  </si>
-  <si>
-    <t>MAT0012</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 12</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 12</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.CRE.02.........</t>
+    <t>D</t>
   </si>
   <si>
     <t>CRITICITE02</t>
   </si>
   <si>
-    <t>AFF COMPTABLE 13</t>
-  </si>
-  <si>
-    <t>REFCOMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0013</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 13</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 14</t>
-  </si>
-  <si>
-    <t>MAT0014</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 14</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 15</t>
-  </si>
-  <si>
-    <t>MAT0015</t>
-  </si>
-  <si>
     <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>MAT.UPD.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 15</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 16</t>
-  </si>
-  <si>
-    <t>MAT0016</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 16</t>
-  </si>
-  <si>
-    <t>IMP.UPD.TR.BTR.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 17</t>
-  </si>
-  <si>
-    <t>MAT0017</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.SUP.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 17</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 18</t>
-  </si>
-  <si>
-    <t>MAT0018</t>
-  </si>
-  <si>
-    <t>TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>MAT.TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>CPT.TR.BTR.001.REC.01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 18</t>
-  </si>
-  <si>
-    <t>IMP.TR.BTR.001.REC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 19</t>
-  </si>
-  <si>
-    <t>MAT0019</t>
-  </si>
-  <si>
-    <t>CAS DE TEST (MAT_CONTRA)</t>
-  </si>
-  <si>
-    <t>ID_CODCONTRA</t>
-  </si>
-  <si>
-    <t>ST_TYP</t>
-  </si>
-  <si>
-    <t>ST_DEF</t>
-  </si>
-  <si>
-    <t>CAS DE TEST (BT_MAT)</t>
-  </si>
-  <si>
-    <t>ID_NUMMVT</t>
-  </si>
-  <si>
-    <t>ID_NUMBT</t>
-  </si>
-  <si>
-    <t>ID_DTMOU</t>
-  </si>
-  <si>
-    <t>ST_CODEMP</t>
-  </si>
-  <si>
-    <t>ID_NUMCDE</t>
-  </si>
-  <si>
-    <t>ST_PRECDE</t>
-  </si>
-  <si>
-    <t>NU_NUMCDE</t>
-  </si>
-  <si>
-    <t>ID_NUMORD</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 10</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>CAS DE TEST (MATDOC)</t>
@@ -2905,14 +2905,14 @@
       <c r="BK2" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BL2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="BM2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BN2" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="BO2" s="25">
         <v>1000.0</v>
@@ -2930,7 +2930,7 @@
         <v>117</v>
       </c>
       <c r="BT2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="29" t="s">
         <v>130</v>
@@ -2954,13 +2954,13 @@
         <v>117</v>
       </c>
       <c r="CB2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CD2" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE2" s="17" t="s">
         <v>117</v>
@@ -2984,54 +2984,54 @@
         <v>122</v>
       </c>
       <c r="CL2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CM2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CO2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>130</v>
       </c>
       <c r="CQ2" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CR2" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS2" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT2" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX2" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY2" s="15" t="s">
-        <v>138</v>
+      <c r="CY2" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>117</v>
@@ -3040,7 +3040,7 @@
         <v>118</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>117</v>
@@ -3061,13 +3061,13 @@
         <v>1003.0</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>123</v>
@@ -3133,7 +3133,7 @@
         <v>117</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK3" s="15" t="s">
         <v>131</v>
@@ -3151,7 +3151,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ3" s="15" t="s">
         <v>133</v>
@@ -3178,13 +3178,13 @@
         <v>133</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AZ3" s="28" t="s">
         <v>135</v>
       </c>
       <c r="BA3" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BB3" s="27">
         <v>44197.0</v>
@@ -3214,16 +3214,16 @@
         <v>117</v>
       </c>
       <c r="BK3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL3" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="BM3" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="BL3" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM3" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="BN3" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BO3" s="25">
         <v>1000.0</v>
@@ -3241,10 +3241,10 @@
         <v>117</v>
       </c>
       <c r="BT3" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BU3" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BV3" s="24" t="s">
         <v>126</v>
@@ -3265,14 +3265,14 @@
         <v>117</v>
       </c>
       <c r="CB3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC3" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CD3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CD3" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="CE3" s="17" t="s">
         <v>117</v>
       </c>
@@ -3283,66 +3283,66 @@
         <v>117</v>
       </c>
       <c r="CH3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CI3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CJ3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CK3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CP3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="CI3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="CJ3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="CK3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="CL3" s="15" t="s">
+      <c r="CQ3" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="CM3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="CN3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="CO3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="CP3" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="CR3" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS3" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT3" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX3" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX3" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY3" s="15" t="s">
-        <v>138</v>
+      <c r="CY3" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>117</v>
@@ -3351,7 +3351,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>117</v>
@@ -3372,13 +3372,13 @@
         <v>1004.0</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>123</v>
@@ -3444,7 +3444,7 @@
         <v>117</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK4" s="15" t="s">
         <v>131</v>
@@ -3462,7 +3462,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AQ4" s="15" t="s">
         <v>133</v>
@@ -3489,13 +3489,13 @@
         <v>133</v>
       </c>
       <c r="AY4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AZ4" s="28" t="s">
         <v>135</v>
       </c>
       <c r="BA4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BB4" s="27">
         <v>44197.0</v>
@@ -3525,16 +3525,16 @@
         <v>117</v>
       </c>
       <c r="BK4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL4" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="BM4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="BL4" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM4" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="BN4" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BO4" s="25">
         <v>1000.0</v>
@@ -3552,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="BT4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BU4" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BV4" s="24" t="s">
         <v>126</v>
@@ -3576,14 +3576,14 @@
         <v>117</v>
       </c>
       <c r="CB4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC4" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC4" s="15" t="s">
+      <c r="CD4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CD4" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="CE4" s="17" t="s">
         <v>117</v>
       </c>
@@ -3594,66 +3594,66 @@
         <v>117</v>
       </c>
       <c r="CH4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CO4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CP4" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="CI4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="CJ4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="CK4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CQ4" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="CN4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="CO4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="CP4" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="CR4" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS4" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT4" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX4" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX4" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY4" s="15" t="s">
-        <v>138</v>
+      <c r="CY4" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>117</v>
@@ -3662,7 +3662,7 @@
         <v>118</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>117</v>
@@ -3683,13 +3683,13 @@
         <v>1005.0</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>123</v>
@@ -3755,7 +3755,7 @@
         <v>117</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK5" s="15" t="s">
         <v>131</v>
@@ -3773,7 +3773,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ5" s="15" t="s">
         <v>133</v>
@@ -3800,13 +3800,13 @@
         <v>133</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ5" s="28" t="s">
         <v>135</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BB5" s="27">
         <v>44197.0</v>
@@ -3836,16 +3836,16 @@
         <v>117</v>
       </c>
       <c r="BK5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="BM5" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="BL5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM5" s="15" t="s">
-        <v>185</v>
-      </c>
       <c r="BN5" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BO5" s="25">
         <v>1000.0</v>
@@ -3863,10 +3863,10 @@
         <v>117</v>
       </c>
       <c r="BT5" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BU5" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BV5" s="24" t="s">
         <v>126</v>
@@ -3887,14 +3887,14 @@
         <v>117</v>
       </c>
       <c r="CB5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC5" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC5" s="15" t="s">
+      <c r="CD5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CD5" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="CE5" s="17" t="s">
         <v>117</v>
       </c>
@@ -3905,66 +3905,66 @@
         <v>117</v>
       </c>
       <c r="CH5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CO5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CP5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="CI5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="CJ5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="CK5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="CL5" s="15" t="s">
+      <c r="CQ5" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="CM5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="CO5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="CP5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="CQ5" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="CR5" s="27">
         <v>43861.0</v>
       </c>
       <c r="CS5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT5" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY5" s="15" t="s">
-        <v>138</v>
+      <c r="CY5" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>117</v>
@@ -3994,7 +3994,7 @@
         <v>1006.0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>117</v>
@@ -4117,7 +4117,7 @@
         <v>135</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB6" s="27">
         <v>44197.0</v>
@@ -4147,16 +4147,16 @@
         <v>117</v>
       </c>
       <c r="BK6" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL6" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="BM6" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="BL6" s="15" t="s">
+      <c r="BN6" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="BM6" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BN6" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="BO6" s="25">
         <v>1000.0</v>
@@ -4174,7 +4174,7 @@
         <v>117</v>
       </c>
       <c r="BT6" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BU6" s="16" t="s">
         <v>117</v>
@@ -4198,13 +4198,13 @@
         <v>117</v>
       </c>
       <c r="CB6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC6" s="15" t="s">
+      <c r="CD6" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD6" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE6" s="17" t="s">
         <v>117</v>
@@ -4249,33 +4249,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS6" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT6" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX6" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY6" s="15" t="s">
-        <v>138</v>
+      <c r="CY6" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>117</v>
@@ -4305,7 +4305,7 @@
         <v>1007.0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>117</v>
@@ -4428,7 +4428,7 @@
         <v>135</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BB7" s="27">
         <v>44197.0</v>
@@ -4458,16 +4458,16 @@
         <v>117</v>
       </c>
       <c r="BK7" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL7" s="15" t="s">
-        <v>138</v>
+        <v>200</v>
+      </c>
+      <c r="BL7" s="15">
+        <v>1.0</v>
       </c>
       <c r="BM7" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BO7" s="25">
         <v>1000.0</v>
@@ -4485,7 +4485,7 @@
         <v>117</v>
       </c>
       <c r="BT7" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU7" s="16" t="s">
         <v>117</v>
@@ -4509,13 +4509,13 @@
         <v>117</v>
       </c>
       <c r="CB7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC7" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC7" s="15" t="s">
+      <c r="CD7" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD7" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE7" s="17" t="s">
         <v>117</v>
@@ -4560,33 +4560,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS7" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT7" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY7" s="15" t="s">
-        <v>194</v>
+      <c r="CY7" s="15">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>117</v>
@@ -4616,7 +4616,7 @@
         <v>1008.0</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>117</v>
@@ -4739,7 +4739,7 @@
         <v>135</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BB8" s="27">
         <v>44197.0</v>
@@ -4769,16 +4769,16 @@
         <v>117</v>
       </c>
       <c r="BK8" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL8" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL8" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="BM8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN8" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="BM8" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN8" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="BO8" s="25">
         <v>1000.0</v>
@@ -4796,7 +4796,7 @@
         <v>117</v>
       </c>
       <c r="BT8" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BU8" s="16" t="s">
         <v>117</v>
@@ -4820,13 +4820,13 @@
         <v>117</v>
       </c>
       <c r="CB8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC8" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC8" s="15" t="s">
+      <c r="CD8" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD8" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE8" s="17" t="s">
         <v>117</v>
@@ -4871,33 +4871,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS8" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT8" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX8" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY8" s="15" t="s">
-        <v>212</v>
+      <c r="CY8" s="15">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>117</v>
@@ -4927,7 +4927,7 @@
         <v>1009.0</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>117</v>
@@ -5050,7 +5050,7 @@
         <v>135</v>
       </c>
       <c r="BA9" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BB9" s="27">
         <v>44197.0</v>
@@ -5080,16 +5080,16 @@
         <v>117</v>
       </c>
       <c r="BK9" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL9" s="15" t="s">
-        <v>138</v>
+        <v>214</v>
+      </c>
+      <c r="BL9" s="15">
+        <v>1.0</v>
       </c>
       <c r="BM9" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BN9" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BO9" s="25">
         <v>1000.0</v>
@@ -5107,7 +5107,7 @@
         <v>117</v>
       </c>
       <c r="BT9" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BU9" s="16" t="s">
         <v>117</v>
@@ -5131,13 +5131,13 @@
         <v>117</v>
       </c>
       <c r="CB9" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC9" s="15" t="s">
+      <c r="CD9" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD9" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE9" s="17" t="s">
         <v>117</v>
@@ -5182,33 +5182,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS9" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX9" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX9" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY9" s="15" t="s">
-        <v>138</v>
+      <c r="CY9" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>117</v>
@@ -5238,7 +5238,7 @@
         <v>1010.0</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>117</v>
@@ -5361,7 +5361,7 @@
         <v>135</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BB10" s="27">
         <v>44197.0</v>
@@ -5391,16 +5391,16 @@
         <v>117</v>
       </c>
       <c r="BK10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL10" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL10" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="BM10" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN10" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="BM10" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="BN10" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="BO10" s="25">
         <v>1000.0</v>
@@ -5418,7 +5418,7 @@
         <v>117</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BU10" s="16" t="s">
         <v>117</v>
@@ -5442,13 +5442,13 @@
         <v>117</v>
       </c>
       <c r="CB10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC10" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC10" s="15" t="s">
+      <c r="CD10" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD10" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE10" s="17" t="s">
         <v>117</v>
@@ -5493,33 +5493,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS10" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT10" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX10" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY10" s="15" t="s">
-        <v>194</v>
+      <c r="CY10" s="15">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>117</v>
@@ -5549,7 +5549,7 @@
         <v>1011.0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>117</v>
@@ -5672,7 +5672,7 @@
         <v>135</v>
       </c>
       <c r="BA11" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BB11" s="27">
         <v>44197.0</v>
@@ -5702,16 +5702,16 @@
         <v>117</v>
       </c>
       <c r="BK11" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL11" s="15" t="s">
-        <v>138</v>
+        <v>226</v>
+      </c>
+      <c r="BL11" s="15">
+        <v>1.0</v>
       </c>
       <c r="BM11" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="BN11" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BO11" s="25">
         <v>1000.0</v>
@@ -5729,7 +5729,7 @@
         <v>117</v>
       </c>
       <c r="BT11" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>117</v>
@@ -5753,13 +5753,13 @@
         <v>117</v>
       </c>
       <c r="CB11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC11" s="15" t="s">
+      <c r="CD11" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD11" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE11" s="17" t="s">
         <v>117</v>
@@ -5804,33 +5804,33 @@
         <v>43861.0</v>
       </c>
       <c r="CS11" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT11" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX11" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX11" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY11" s="15" t="s">
-        <v>212</v>
+      <c r="CY11" s="15">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>117</v>
@@ -5860,7 +5860,7 @@
         <v>1012.0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>117</v>
@@ -5983,7 +5983,7 @@
         <v>135</v>
       </c>
       <c r="BA12" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="BB12" s="27">
         <v>44197.0</v>
@@ -6013,16 +6013,16 @@
         <v>117</v>
       </c>
       <c r="BK12" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL12" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL12" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="BM12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BN12" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="BM12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="BN12" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="BO12" s="25">
         <v>1000.0</v>
@@ -6040,7 +6040,7 @@
         <v>117</v>
       </c>
       <c r="BT12" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BU12" s="16" t="s">
         <v>117</v>
@@ -6064,13 +6064,13 @@
         <v>117</v>
       </c>
       <c r="CB12" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC12" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CC12" s="15" t="s">
+      <c r="CD12" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="CD12" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="CE12" s="17" t="s">
         <v>117</v>
@@ -6115,25 +6115,25 @@
         <v>43861.0</v>
       </c>
       <c r="CS12" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT12" s="17" t="s">
         <v>120</v>
       </c>
       <c r="CU12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX12" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="CV12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX12" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY12" s="15" t="s">
-        <v>138</v>
+      <c r="CY12" s="15">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -7555,19 +7555,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10616,10 +10616,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>14</v>
@@ -10628,7 +10628,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>16</v>
@@ -10640,10 +10640,10 @@
         <v>29</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>30</v>
@@ -10652,22 +10652,22 @@
         <v>63</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="R1" s="34" t="s">
         <v>248</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>48</v>
@@ -10738,7 +10738,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>117</v>
@@ -10774,13 +10774,13 @@
         <v>122</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>117</v>
@@ -10798,10 +10798,10 @@
         <v>129</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -10833,7 +10833,7 @@
         <v>126</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>117</v>
@@ -10869,13 +10869,13 @@
         <v>122</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="W3" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>117</v>
@@ -10893,21 +10893,21 @@
         <v>129</v>
       </c>
       <c r="AD3" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="36">
         <v>1002.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>117</v>
@@ -10928,13 +10928,13 @@
         <v>126</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>117</v>
@@ -10961,16 +10961,16 @@
         <v>131</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>117</v>
@@ -10988,21 +10988,21 @@
         <v>129</v>
       </c>
       <c r="AD4" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="36">
         <v>1003.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>117</v>
@@ -11023,13 +11023,13 @@
         <v>126</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>117</v>
@@ -11056,16 +11056,16 @@
         <v>131</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y5" s="16" t="s">
         <v>117</v>
@@ -11083,21 +11083,21 @@
         <v>129</v>
       </c>
       <c r="AD5" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="36">
         <v>1004.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>117</v>
@@ -11118,13 +11118,13 @@
         <v>126</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>117</v>
@@ -11151,16 +11151,16 @@
         <v>131</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y6" s="16" t="s">
         <v>117</v>
@@ -11178,21 +11178,21 @@
         <v>129</v>
       </c>
       <c r="AD6" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="36">
         <v>1005.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>117</v>
@@ -11213,13 +11213,13 @@
         <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>117</v>
@@ -11246,16 +11246,16 @@
         <v>131</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y7" s="16" t="s">
         <v>117</v>
@@ -11273,21 +11273,21 @@
         <v>129</v>
       </c>
       <c r="AD7" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="36">
         <v>1006.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>117</v>
@@ -11308,13 +11308,13 @@
         <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>117</v>
@@ -11341,16 +11341,16 @@
         <v>131</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y8" s="16" t="s">
         <v>117</v>
@@ -11368,21 +11368,21 @@
         <v>129</v>
       </c>
       <c r="AD8" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="36">
         <v>1007.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>117</v>
@@ -11403,13 +11403,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>117</v>
@@ -11436,16 +11436,16 @@
         <v>131</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y9" s="16" t="s">
         <v>117</v>
@@ -11463,21 +11463,21 @@
         <v>129</v>
       </c>
       <c r="AD9" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="36">
         <v>1008.0</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>117</v>
@@ -11534,13 +11534,13 @@
         <v>117</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y10" s="16" t="s">
         <v>117</v>
@@ -11558,21 +11558,21 @@
         <v>129</v>
       </c>
       <c r="AD10" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE10" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="36">
         <v>1009.0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>117</v>
@@ -11593,7 +11593,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>117</v>
@@ -11629,13 +11629,13 @@
         <v>117</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X11" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y11" s="16" t="s">
         <v>117</v>
@@ -11653,21 +11653,21 @@
         <v>129</v>
       </c>
       <c r="AD11" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="36">
         <v>1010.0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>117</v>
@@ -11688,7 +11688,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>117</v>
@@ -11724,13 +11724,13 @@
         <v>117</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y12" s="16" t="s">
         <v>117</v>
@@ -11748,21 +11748,21 @@
         <v>129</v>
       </c>
       <c r="AD12" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B13" s="36">
         <v>1011.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>117</v>
@@ -11783,7 +11783,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>117</v>
@@ -11819,13 +11819,13 @@
         <v>117</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y13" s="16" t="s">
         <v>117</v>
@@ -11843,21 +11843,21 @@
         <v>129</v>
       </c>
       <c r="AD13" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="36">
         <v>1012.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>117</v>
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>117</v>
@@ -11914,13 +11914,13 @@
         <v>117</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y14" s="16" t="s">
         <v>117</v>
@@ -11938,21 +11938,21 @@
         <v>129</v>
       </c>
       <c r="AD14" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="36">
         <v>1013.0</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>117</v>
@@ -11973,7 +11973,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>117</v>
@@ -12009,13 +12009,13 @@
         <v>117</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y15" s="16" t="s">
         <v>117</v>
@@ -12033,21 +12033,21 @@
         <v>129</v>
       </c>
       <c r="AD15" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B16" s="36">
         <v>1014.0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>117</v>
@@ -12068,7 +12068,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>117</v>
@@ -12104,13 +12104,13 @@
         <v>117</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y16" s="16" t="s">
         <v>117</v>
@@ -12128,21 +12128,21 @@
         <v>129</v>
       </c>
       <c r="AD16" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE16" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B17" s="36">
         <v>1015.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>117</v>
@@ -12163,7 +12163,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>117</v>
@@ -12199,13 +12199,13 @@
         <v>117</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y17" s="16" t="s">
         <v>117</v>
@@ -12223,21 +12223,21 @@
         <v>129</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE17" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B18" s="36">
         <v>1016.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>117</v>
@@ -12258,7 +12258,7 @@
         <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>117</v>
@@ -12294,13 +12294,13 @@
         <v>117</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X18" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y18" s="16" t="s">
         <v>117</v>
@@ -12318,21 +12318,21 @@
         <v>129</v>
       </c>
       <c r="AD18" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B19" s="36">
         <v>1017.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>117</v>
@@ -12353,7 +12353,7 @@
         <v>126</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>117</v>
@@ -12389,13 +12389,13 @@
         <v>117</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X19" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y19" s="16" t="s">
         <v>117</v>
@@ -12413,21 +12413,21 @@
         <v>129</v>
       </c>
       <c r="AD19" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B20" s="36">
         <v>1018.0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>117</v>
@@ -12448,7 +12448,7 @@
         <v>126</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>117</v>
@@ -12484,13 +12484,13 @@
         <v>117</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="W20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X20" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y20" s="16" t="s">
         <v>117</v>
@@ -12508,21 +12508,21 @@
         <v>129</v>
       </c>
       <c r="AD20" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="36">
         <v>1019.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>117</v>
@@ -12543,7 +12543,7 @@
         <v>126</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>117</v>
@@ -12579,13 +12579,13 @@
         <v>117</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="W21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X21" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y21" s="16" t="s">
         <v>117</v>
@@ -12603,21 +12603,21 @@
         <v>129</v>
       </c>
       <c r="AD21" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE21" s="15" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B22" s="36">
         <v>1020.0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>117</v>
@@ -12638,7 +12638,7 @@
         <v>126</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>117</v>
@@ -12674,13 +12674,13 @@
         <v>117</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="W22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y22" s="16" t="s">
         <v>117</v>
@@ -12698,21 +12698,21 @@
         <v>129</v>
       </c>
       <c r="AD22" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE22" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" s="36">
         <v>1021.0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>117</v>
@@ -12733,7 +12733,7 @@
         <v>126</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>117</v>
@@ -12769,13 +12769,13 @@
         <v>117</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="W23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="Y23" s="16" t="s">
         <v>117</v>
@@ -12793,10 +12793,10 @@
         <v>129</v>
       </c>
       <c r="AD23" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE23" s="15" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -15791,7 +15791,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="37">
         <v>1003.0</v>
@@ -15802,7 +15802,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="37">
         <v>1004.0</v>
@@ -15813,7 +15813,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="37">
         <v>1005.0</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="37">
         <v>1006.0</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="37">
         <v>1007.0</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="37">
         <v>1008.0</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B9" s="37">
         <v>1009.0</v>
@@ -15868,7 +15868,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B10" s="37">
         <v>1010.0</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="37">
         <v>1011.0</v>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B12" s="37">
         <v>1012.0</v>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -15741,7 +15741,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
     <col customWidth="1" min="2" max="2" width="10.88"/>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="60.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="h2bWJnmsxdDLywbYdvSNqPQ2TNdpfBrR8+eDdw2JRx0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="K7NXxF3E1Hh+Nu5eBNKio2e9NVHSrNlvyfzgDFl/YKs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -2362,8 +2362,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -11184,15 +11184,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B7" s="36">
-        <v>1005.0</v>
+        <v>1006.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>117</v>
@@ -11213,13 +11213,13 @@
         <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>117</v>
@@ -11245,11 +11245,11 @@
       <c r="T7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="U7" s="19" t="s">
-        <v>165</v>
+      <c r="U7" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>142</v>
@@ -11284,7 +11284,7 @@
         <v>175</v>
       </c>
       <c r="B8" s="36">
-        <v>1006.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>175</v>
@@ -11308,7 +11308,7 @@
         <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>117</v>
@@ -11376,13 +11376,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B9" s="36">
-        <v>1007.0</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>175</v>
+        <v>1008.0</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>117</v>
@@ -11403,13 +11403,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>117</v>
@@ -11436,10 +11436,10 @@
         <v>131</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>142</v>
@@ -11474,7 +11474,7 @@
         <v>188</v>
       </c>
       <c r="B10" s="36">
-        <v>1008.0</v>
+        <v>1009.0</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>189</v>
@@ -11498,7 +11498,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>117</v>
@@ -11566,13 +11566,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B11" s="36">
-        <v>1009.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>117</v>
@@ -11593,7 +11593,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>117</v>
@@ -11629,7 +11629,7 @@
         <v>117</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="W11" s="15" t="s">
         <v>142</v>
@@ -11656,7 +11656,7 @@
         <v>148</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -11664,7 +11664,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="36">
-        <v>1010.0</v>
+        <v>1011.0</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>197</v>
@@ -11688,7 +11688,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>117</v>
@@ -11756,13 +11756,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B13" s="36">
-        <v>1011.0</v>
+        <v>1012.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>117</v>
@@ -11783,7 +11783,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>117</v>
@@ -11819,7 +11819,7 @@
         <v>117</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>142</v>
@@ -11846,7 +11846,7 @@
         <v>148</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -11854,7 +11854,7 @@
         <v>203</v>
       </c>
       <c r="B14" s="36">
-        <v>1012.0</v>
+        <v>1013.0</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>204</v>
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>117</v>
@@ -11945,14 +11945,14 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>203</v>
+      <c r="A15" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="B15" s="36">
-        <v>1013.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>117</v>
@@ -11973,7 +11973,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>117</v>
@@ -12009,7 +12009,7 @@
         <v>117</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="W15" s="15" t="s">
         <v>142</v>
@@ -12036,15 +12036,15 @@
         <v>148</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="36">
-        <v>1014.0</v>
+        <v>1015.0</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>211</v>
@@ -12068,7 +12068,7 @@
         <v>126</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>117</v>
@@ -12136,13 +12136,13 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B17" s="36">
-        <v>1015.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>117</v>
@@ -12163,7 +12163,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>117</v>
@@ -12199,7 +12199,7 @@
         <v>117</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="W17" s="15" t="s">
         <v>142</v>
@@ -12226,15 +12226,15 @@
         <v>148</v>
       </c>
       <c r="AE17" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B18" s="36">
-        <v>1016.0</v>
+        <v>1017.0</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>217</v>
@@ -12258,7 +12258,7 @@
         <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>117</v>
@@ -12324,15 +12324,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B19" s="36">
-        <v>1017.0</v>
+        <v>1018.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>117</v>
@@ -12353,7 +12353,7 @@
         <v>126</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>117</v>
@@ -12389,7 +12389,7 @@
         <v>117</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="W19" s="15" t="s">
         <v>142</v>
@@ -12416,7 +12416,7 @@
         <v>148</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -12424,7 +12424,7 @@
         <v>222</v>
       </c>
       <c r="B20" s="36">
-        <v>1018.0</v>
+        <v>1019.0</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>223</v>
@@ -12448,7 +12448,7 @@
         <v>126</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>117</v>
@@ -12516,13 +12516,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B21" s="36">
-        <v>1019.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>117</v>
@@ -12543,7 +12543,7 @@
         <v>126</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>117</v>
@@ -12579,7 +12579,7 @@
         <v>117</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="W21" s="15" t="s">
         <v>142</v>
@@ -12606,7 +12606,7 @@
         <v>148</v>
       </c>
       <c r="AE21" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -12614,7 +12614,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="36">
-        <v>1020.0</v>
+        <v>1021.0</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>230</v>
@@ -12638,7 +12638,7 @@
         <v>126</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>117</v>
@@ -12705,99 +12705,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="36">
-        <v>1021.0</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB23" s="25">
-        <v>1100.0</v>
-      </c>
-      <c r="AC23" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD23" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE23" s="15" t="s">
-        <v>251</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -15679,7 +15587,7 @@
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984">
       <c r="A984" s="2"/>
     </row>
     <row r="985">
@@ -15711,9 +15619,6 @@
     </row>
     <row r="994">
       <c r="A994" s="2"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="2"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/TNR_PREJDD/PREJDD.RT.MAT.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.MAT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -2861,10 +2861,10 @@
         <v>120</v>
       </c>
       <c r="AW2" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY2" s="15" t="s">
         <v>134</v>
@@ -3172,10 +3172,10 @@
         <v>120</v>
       </c>
       <c r="AW3" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY3" s="15" t="s">
         <v>155</v>
@@ -3189,17 +3189,17 @@
       <c r="BB3" s="27">
         <v>44197.0</v>
       </c>
-      <c r="BC3" s="27">
-        <v>44348.0</v>
-      </c>
-      <c r="BD3" s="27">
-        <v>44713.0</v>
-      </c>
-      <c r="BE3" s="27">
-        <v>44378.0</v>
-      </c>
-      <c r="BF3" s="27">
-        <v>44743.0</v>
+      <c r="BC3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF3" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="BG3" s="25" t="s">
         <v>117</v>
@@ -3483,10 +3483,10 @@
         <v>120</v>
       </c>
       <c r="AW4" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY4" s="15" t="s">
         <v>168</v>
@@ -3794,10 +3794,10 @@
         <v>120</v>
       </c>
       <c r="AW5" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX5" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY5" s="15" t="s">
         <v>181</v>
@@ -4105,10 +4105,10 @@
         <v>120</v>
       </c>
       <c r="AW6" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY6" s="15" t="s">
         <v>117</v>
@@ -4416,10 +4416,10 @@
         <v>120</v>
       </c>
       <c r="AW7" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY7" s="15" t="s">
         <v>117</v>
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY8" s="15" t="s">
         <v>117</v>
@@ -5038,10 +5038,10 @@
         <v>120</v>
       </c>
       <c r="AW9" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY9" s="15" t="s">
         <v>117</v>
@@ -5349,10 +5349,10 @@
         <v>120</v>
       </c>
       <c r="AW10" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX10" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY10" s="15" t="s">
         <v>117</v>
@@ -5660,10 +5660,10 @@
         <v>120</v>
       </c>
       <c r="AW11" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX11" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY11" s="15" t="s">
         <v>117</v>
@@ -5971,10 +5971,10 @@
         <v>120</v>
       </c>
       <c r="AW12" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX12" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AY12" s="15" t="s">
         <v>117</v>
